--- a/配置信息.xlsx
+++ b/配置信息.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zla_git\zhongjie_si\zhongjie\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="中捷模板机配置参数" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="507">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,275 +1408,479 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DSP3-CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP4-CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀角度电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动换梭臂电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪线电机找原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二原点压框状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转伺服切刀电机原点偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-无偏移 其它-偏移步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中压脚传感器极性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3A工作电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3B工作电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀角度电机/换梭臂电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3A电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3B电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3A传感器极性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3B传感器极性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘电机旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘抖动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘抖动时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀角度电机动作前延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀机型XY动框前延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀机型XY动框时间限定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀的工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55-我们的伺服驱动，其它值是外挂伺服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀机型是否使用下降安全传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-使用 其它不使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中压脚电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐点降速速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第7针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第6针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第5针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第4针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第3针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第2针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第1针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第9针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>旋转伺服切刀转速微调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吹气时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪线吹气时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3_CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP4_CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀电机原点转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中压脚曲线选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速启动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐点后第一针速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐点后第二针速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐点后第三针速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐点后第四针速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空送时是否打开松线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换RFID增益控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油量报警使能开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次启动开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线切刀电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐点降速速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换导轨和横梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转伺服切刀转速微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转伺服切刀电机原点偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中压脚传感器极性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F(工作模式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20（编码器线数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21（编码器线数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22（步距角系数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23（步距角系数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27（进锁轴延时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28H（超差条件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28M1（超差条件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28M2（精度和恒幅值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28L（精度和恒幅值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP1A半流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP1B半流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP2A半流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP2B半流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨线器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X传感器未挡电平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y传感器无效电平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光切割功能使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVB有效电平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数第8针转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVA有效电平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y向后退距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X左侧取料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X右侧取料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y读码位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹气时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪线吹气时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪线电机找原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二原点压框状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3A半流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3A工作电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3B工作电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3A电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3B电机转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3A传感器极性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3B传感器极性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘电机旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘抖动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘抖动时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀角度电机动作前延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀机型XY动框前延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀机型XY动框时间限定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀的工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转切刀机型是否使用下降安全传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪线电机速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主轴转速限速开关（百分比转速）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键启动功能开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断线后退动作开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断线后退针数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6000+微调时间走60000步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3-CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP4-CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀角度电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动换梭臂电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梭盘电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪线电机找原点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二原点压框状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转伺服切刀电机原点偏移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-无偏移 其它-偏移步数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中压脚传感器极性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3A工作电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3B工作电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀角度电机/换梭臂电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3A电机转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3B电机转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3A传感器极性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3B传感器极性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3使能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梭盘电机旋转速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梭盘抖动距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梭盘抖动时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀角度电机动作前延时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀机型XY动框前延时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀机型XY动框时间限定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀的工作模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55-我们的伺服驱动，其它值是外挂伺服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀机型是否使用下降安全传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-使用 其它不使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竖屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X电机转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y电机转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中压脚电机转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪线电机速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主轴转速限速开关（百分比转速）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键启动功能开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断线后退动作开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断线后退针数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拐点降速速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第7针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第6针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第5针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第4针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第3针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第2针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第1针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒数第9针转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转伺服切刀转速微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹气时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪线吹气时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP3_CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP4_CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转切刀电机原点转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中压脚曲线选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢速启动模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拐点后第一针速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拐点后第二针速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拐点后第三针速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拐点后第四针速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空送时是否打开松线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换RFID增益控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油量报警使能开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次启动开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1919,25 +2128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1949,10 +2146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1964,7 +2161,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1973,23 +2188,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2031,7 +2248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2063,9 +2280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2097,6 +2315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2272,36 +2491,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AI214"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="32.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="9" width="5.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.75" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="3" customWidth="1"/>
-    <col min="12" max="27" width="2.625" customWidth="1"/>
-    <col min="28" max="28" width="13.375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="5.5" style="3" customWidth="1"/>
-    <col min="30" max="30" width="5.25" customWidth="1"/>
-    <col min="31" max="31" width="5.125" customWidth="1"/>
-    <col min="32" max="32" width="18.75" customWidth="1"/>
-    <col min="33" max="33" width="5.375" customWidth="1"/>
-    <col min="34" max="34" width="20.25" customWidth="1"/>
-    <col min="35" max="35" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="5.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="3" customWidth="1"/>
+    <col min="12" max="27" width="2.6640625" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="5.44140625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="5.21875" customWidth="1"/>
+    <col min="31" max="31" width="5.109375" customWidth="1"/>
+    <col min="32" max="32" width="18.77734375" customWidth="1"/>
+    <col min="33" max="33" width="5.33203125" customWidth="1"/>
+    <col min="34" max="34" width="20.21875" customWidth="1"/>
+    <col min="35" max="35" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:35">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -2378,8 +2597,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:35">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -2402,26 +2621,26 @@
       <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
       <c r="AE4" s="5">
         <v>1</v>
       </c>
@@ -2431,15 +2650,15 @@
       <c r="AG4" s="2">
         <v>41</v>
       </c>
-      <c r="AH4" s="30" t="s">
+      <c r="AH4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="AI4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:35">
-      <c r="B5" s="37"/>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
       <c r="C5" s="26"/>
       <c r="D5" s="2">
         <v>2</v>
@@ -2452,26 +2671,26 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="L5" s="34">
+      <c r="L5" s="30">
         <v>1</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="34">
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="30">
         <v>1</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="32"/>
       <c r="AE5" s="5">
         <v>2</v>
       </c>
@@ -2481,13 +2700,13 @@
       <c r="AG5" s="2">
         <v>80</v>
       </c>
-      <c r="AH5" s="29"/>
+      <c r="AH5" s="34"/>
       <c r="AI5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:35">
-      <c r="B6" s="37"/>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
       <c r="C6" s="26" t="s">
         <v>374</v>
       </c>
@@ -2505,24 +2724,24 @@
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="38"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="29"/>
       <c r="AE6" s="5">
         <v>3</v>
       </c>
@@ -2532,13 +2751,13 @@
       <c r="AG6" s="2">
         <v>16</v>
       </c>
-      <c r="AH6" s="29"/>
+      <c r="AH6" s="34"/>
       <c r="AI6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:35">
-      <c r="B7" s="37"/>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
       <c r="C7" s="26"/>
       <c r="D7" s="2">
         <v>4</v>
@@ -2551,24 +2770,24 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="L7" s="34">
+      <c r="L7" s="30">
         <v>1000</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="36"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32"/>
       <c r="AE7" s="5">
         <v>4</v>
       </c>
@@ -2578,13 +2797,13 @@
       <c r="AG7" s="2">
         <v>8</v>
       </c>
-      <c r="AH7" s="29"/>
+      <c r="AH7" s="34"/>
       <c r="AI7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:35">
-      <c r="B8" s="37"/>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
       <c r="C8" s="26" t="s">
         <v>375</v>
       </c>
@@ -2602,24 +2821,24 @@
       <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="38"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="29"/>
       <c r="AE8" s="5">
         <v>5</v>
       </c>
@@ -2629,13 +2848,13 @@
       <c r="AG8" s="2">
         <v>0</v>
       </c>
-      <c r="AH8" s="29"/>
+      <c r="AH8" s="34"/>
       <c r="AI8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:35">
-      <c r="B9" s="37"/>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
       <c r="C9" s="26"/>
       <c r="D9" s="2">
         <v>6</v>
@@ -2648,24 +2867,24 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="L9" s="34">
+      <c r="L9" s="30">
         <v>1000</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="36"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="32"/>
       <c r="AE9" s="5">
         <v>6</v>
       </c>
@@ -2675,15 +2894,15 @@
       <c r="AG9" s="2">
         <v>44</v>
       </c>
-      <c r="AH9" s="30" t="s">
+      <c r="AH9" s="33" t="s">
         <v>28</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:35">
-      <c r="B10" s="37"/>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
       <c r="C10" s="26" t="s">
         <v>376</v>
       </c>
@@ -2703,24 +2922,24 @@
       <c r="K10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="38"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="29"/>
       <c r="AB10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2736,13 +2955,13 @@
       <c r="AG10" s="2">
         <v>80</v>
       </c>
-      <c r="AH10" s="29"/>
+      <c r="AH10" s="34"/>
       <c r="AI10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:35">
-      <c r="B11" s="37"/>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
       <c r="C11" s="26"/>
       <c r="D11" s="2">
         <v>8</v>
@@ -2757,25 +2976,25 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="L11" s="34">
+      <c r="L11" s="30">
         <f>AC11/(0.09/512)</f>
         <v>8192</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="36"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="32"/>
       <c r="AB11" s="3">
         <f>32768*0.225/AC11</f>
         <v>5120</v>
@@ -2792,13 +3011,13 @@
       <c r="AG11" s="2">
         <v>16</v>
       </c>
-      <c r="AH11" s="29"/>
+      <c r="AH11" s="34"/>
       <c r="AI11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:35">
-      <c r="B12" s="37"/>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
       <c r="C12" s="26" t="s">
         <v>377</v>
       </c>
@@ -2818,24 +3037,24 @@
       <c r="K12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="38"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="29"/>
       <c r="AE12" s="5">
         <v>9</v>
       </c>
@@ -2845,13 +3064,13 @@
       <c r="AG12" s="2">
         <v>8</v>
       </c>
-      <c r="AH12" s="29"/>
+      <c r="AH12" s="34"/>
       <c r="AI12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:35">
-      <c r="B13" s="37"/>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
       <c r="C13" s="26"/>
       <c r="D13" s="2">
         <v>10</v>
@@ -2866,24 +3085,24 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="L13" s="39">
+      <c r="L13" s="35">
         <v>4096</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="41"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="37"/>
       <c r="AB13" s="3">
         <f>32768*0.225/AC13</f>
         <v>16384</v>
@@ -2900,13 +3119,13 @@
       <c r="AG13" s="2">
         <v>0</v>
       </c>
-      <c r="AH13" s="29"/>
+      <c r="AH13" s="34"/>
       <c r="AI13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:35">
-      <c r="B14" s="37"/>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
       <c r="C14" s="26" t="s">
         <v>378</v>
       </c>
@@ -2926,24 +3145,24 @@
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="38"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="29"/>
       <c r="AE14" s="5">
         <v>11</v>
       </c>
@@ -2953,15 +3172,15 @@
       <c r="AG14" s="2">
         <v>44</v>
       </c>
-      <c r="AH14" s="30" t="s">
+      <c r="AH14" s="33" t="s">
         <v>39</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:35">
-      <c r="B15" s="37"/>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B15" s="40"/>
       <c r="C15" s="26"/>
       <c r="D15" s="2">
         <v>12</v>
@@ -2976,24 +3195,24 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="L15" s="34">
+      <c r="L15" s="30">
         <v>100</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="36"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="32"/>
       <c r="AE15" s="5">
         <v>12</v>
       </c>
@@ -3003,13 +3222,13 @@
       <c r="AG15" s="2">
         <v>80</v>
       </c>
-      <c r="AH15" s="29"/>
+      <c r="AH15" s="34"/>
       <c r="AI15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:35">
-      <c r="B16" s="37"/>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
       <c r="C16" s="26" t="s">
         <v>379</v>
       </c>
@@ -3029,26 +3248,26 @@
       <c r="K16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33" t="s">
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
       <c r="AB16" s="3" t="s">
         <v>45</v>
       </c>
@@ -3061,13 +3280,13 @@
       <c r="AG16" s="2">
         <v>16</v>
       </c>
-      <c r="AH16" s="29"/>
+      <c r="AH16" s="34"/>
       <c r="AI16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:35">
-      <c r="B17" s="37"/>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B17" s="40"/>
       <c r="C17" s="26"/>
       <c r="D17" s="2">
         <v>14</v>
@@ -3082,26 +3301,26 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="L17" s="39">
+      <c r="L17" s="35">
         <v>128</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42">
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="39">
         <v>40</v>
       </c>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
       <c r="AE17" s="5">
         <v>14</v>
       </c>
@@ -3111,13 +3330,13 @@
       <c r="AG17" s="2">
         <v>8</v>
       </c>
-      <c r="AH17" s="29"/>
+      <c r="AH17" s="34"/>
       <c r="AI17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:35">
-      <c r="B18" s="37"/>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B18" s="40"/>
       <c r="C18" s="26" t="s">
         <v>380</v>
       </c>
@@ -3137,26 +3356,26 @@
       <c r="K18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="33" t="s">
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
       <c r="AE18" s="5">
         <v>15</v>
       </c>
@@ -3166,13 +3385,13 @@
       <c r="AG18" s="2">
         <v>0</v>
       </c>
-      <c r="AH18" s="29"/>
+      <c r="AH18" s="34"/>
       <c r="AI18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:35">
-      <c r="B19" s="37"/>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B19" s="40"/>
       <c r="C19" s="26"/>
       <c r="D19" s="2">
         <v>16</v>
@@ -3187,26 +3406,26 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="L19" s="34">
+      <c r="L19" s="30">
         <v>128</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="34">
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="30">
         <v>40</v>
       </c>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="36"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="32"/>
       <c r="AE19" s="5">
         <v>16</v>
       </c>
@@ -3216,15 +3435,15 @@
       <c r="AG19" s="2">
         <v>45</v>
       </c>
-      <c r="AH19" s="30" t="s">
+      <c r="AH19" s="33" t="s">
         <v>54</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:35">
-      <c r="B20" s="37"/>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B20" s="40"/>
       <c r="C20" s="26" t="s">
         <v>381</v>
       </c>
@@ -3244,12 +3463,12 @@
       <c r="K20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
       <c r="P20" s="7">
         <v>11</v>
       </c>
@@ -3295,13 +3514,13 @@
       <c r="AG20" s="2">
         <v>80</v>
       </c>
-      <c r="AH20" s="29"/>
+      <c r="AH20" s="34"/>
       <c r="AI20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:35">
-      <c r="B21" s="37"/>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
       <c r="C21" s="26"/>
       <c r="D21" s="2">
         <v>18</v>
@@ -3316,12 +3535,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="L21" s="34">
+      <c r="L21" s="30">
         <v>3</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
       <c r="P21" s="1">
         <v>0</v>
       </c>
@@ -3370,13 +3589,13 @@
       <c r="AG21" s="2">
         <v>16</v>
       </c>
-      <c r="AH21" s="29"/>
+      <c r="AH21" s="34"/>
       <c r="AI21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:35">
-      <c r="B22" s="37"/>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
       <c r="C22" s="26" t="s">
         <v>382</v>
       </c>
@@ -3396,12 +3615,12 @@
       <c r="K22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="7">
         <v>11</v>
       </c>
@@ -3447,13 +3666,13 @@
       <c r="AG22" s="2">
         <v>8</v>
       </c>
-      <c r="AH22" s="29"/>
+      <c r="AH22" s="34"/>
       <c r="AI22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:35">
-      <c r="B23" s="37"/>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B23" s="40"/>
       <c r="C23" s="26"/>
       <c r="D23" s="2">
         <v>20</v>
@@ -3468,12 +3687,12 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="L23" s="34">
+      <c r="L23" s="30">
         <v>3</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="36"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="1">
         <v>0</v>
       </c>
@@ -3519,13 +3738,13 @@
       <c r="AG23" s="2">
         <v>0</v>
       </c>
-      <c r="AH23" s="29"/>
+      <c r="AH23" s="34"/>
       <c r="AI23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:35">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -3548,26 +3767,26 @@
       <c r="K24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="33" t="s">
+      <c r="L24" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33" t="s">
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
       <c r="AE24" s="5">
         <v>21</v>
       </c>
@@ -3577,15 +3796,15 @@
       <c r="AG24" s="2">
         <v>45</v>
       </c>
-      <c r="AH24" s="30" t="s">
+      <c r="AH24" s="33" t="s">
         <v>67</v>
       </c>
       <c r="AI24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:35">
-      <c r="B25" s="37"/>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
       <c r="C25" s="26"/>
       <c r="D25" s="2">
         <v>22</v>
@@ -3598,26 +3817,26 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="L25" s="34">
+      <c r="L25" s="30">
         <v>1</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="34">
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="30">
         <v>1</v>
       </c>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="36"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="32"/>
       <c r="AE25" s="5">
         <v>22</v>
       </c>
@@ -3627,13 +3846,13 @@
       <c r="AG25" s="2">
         <v>80</v>
       </c>
-      <c r="AH25" s="29"/>
+      <c r="AH25" s="34"/>
       <c r="AI25" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:35">
-      <c r="B26" s="37"/>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B26" s="40"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -3651,24 +3870,24 @@
       <c r="K26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="38"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="29"/>
       <c r="AE26" s="5">
         <v>23</v>
       </c>
@@ -3678,13 +3897,13 @@
       <c r="AG26" s="2">
         <v>16</v>
       </c>
-      <c r="AH26" s="29"/>
+      <c r="AH26" s="34"/>
       <c r="AI26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:35">
-      <c r="B27" s="37"/>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B27" s="40"/>
       <c r="C27" s="26"/>
       <c r="D27" s="2">
         <v>24</v>
@@ -3697,24 +3916,24 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="L27" s="34">
+      <c r="L27" s="30">
         <v>1000</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="36"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="32"/>
       <c r="AE27" s="5">
         <v>24</v>
       </c>
@@ -3724,13 +3943,13 @@
       <c r="AG27" s="2">
         <v>8</v>
       </c>
-      <c r="AH27" s="29"/>
+      <c r="AH27" s="34"/>
       <c r="AI27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:35">
-      <c r="B28" s="37"/>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B28" s="40"/>
       <c r="C28" s="26">
         <v>21</v>
       </c>
@@ -3748,24 +3967,24 @@
       <c r="K28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="38"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="29"/>
       <c r="AE28" s="5">
         <v>25</v>
       </c>
@@ -3775,13 +3994,13 @@
       <c r="AG28" s="2">
         <v>0</v>
       </c>
-      <c r="AH28" s="29"/>
+      <c r="AH28" s="34"/>
       <c r="AI28" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:35">
-      <c r="B29" s="37"/>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B29" s="40"/>
       <c r="C29" s="26"/>
       <c r="D29" s="2">
         <v>26</v>
@@ -3794,24 +4013,24 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="L29" s="34">
+      <c r="L29" s="30">
         <v>1000</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="36"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="32"/>
       <c r="AE29" s="5">
         <v>26</v>
       </c>
@@ -3821,15 +4040,15 @@
       <c r="AG29" s="2">
         <v>45</v>
       </c>
-      <c r="AH29" s="30" t="s">
+      <c r="AH29" s="33" t="s">
         <v>73</v>
       </c>
       <c r="AI29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:35">
-      <c r="B30" s="37"/>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B30" s="40"/>
       <c r="C30" s="26">
         <v>22</v>
       </c>
@@ -3847,24 +4066,24 @@
       <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="31" t="s">
+      <c r="L30" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="38"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="29"/>
       <c r="AE30" s="5">
         <v>27</v>
       </c>
@@ -3874,13 +4093,13 @@
       <c r="AG30" s="2">
         <v>80</v>
       </c>
-      <c r="AH30" s="29"/>
+      <c r="AH30" s="34"/>
       <c r="AI30" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:35">
-      <c r="B31" s="37"/>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
       <c r="C31" s="26"/>
       <c r="D31" s="2">
         <v>28</v>
@@ -3893,24 +4112,24 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="L31" s="34">
+      <c r="L31" s="30">
         <v>512</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="36"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="32"/>
       <c r="AB31" s="3" t="s">
         <v>355</v>
       </c>
@@ -3923,13 +4142,13 @@
       <c r="AG31" s="2">
         <v>16</v>
       </c>
-      <c r="AH31" s="29"/>
+      <c r="AH31" s="34"/>
       <c r="AI31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:35">
-      <c r="B32" s="37"/>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B32" s="40"/>
       <c r="C32" s="26">
         <v>23</v>
       </c>
@@ -3947,24 +4166,24 @@
       <c r="K32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="31" t="s">
+      <c r="L32" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="38"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="29"/>
       <c r="AE32" s="5">
         <v>29</v>
       </c>
@@ -3974,13 +4193,13 @@
       <c r="AG32" s="2">
         <v>8</v>
       </c>
-      <c r="AH32" s="29"/>
+      <c r="AH32" s="34"/>
       <c r="AI32" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:35">
-      <c r="B33" s="37"/>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B33" s="40"/>
       <c r="C33" s="26"/>
       <c r="D33" s="2">
         <v>30</v>
@@ -3993,24 +4212,24 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="L33" s="39">
+      <c r="L33" s="35">
         <v>512</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="41"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="37"/>
       <c r="AE33" s="5">
         <v>30</v>
       </c>
@@ -4020,13 +4239,13 @@
       <c r="AG33" s="2">
         <v>0</v>
       </c>
-      <c r="AH33" s="29"/>
+      <c r="AH33" s="34"/>
       <c r="AI33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:35">
-      <c r="B34" s="37"/>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B34" s="40"/>
       <c r="C34" s="26">
         <v>27</v>
       </c>
@@ -4044,24 +4263,24 @@
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="31" t="s">
+      <c r="L34" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="38"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="29"/>
       <c r="AE34" s="5">
         <v>31</v>
       </c>
@@ -4071,15 +4290,15 @@
       <c r="AG34" s="2">
         <v>45</v>
       </c>
-      <c r="AH34" s="30" t="s">
+      <c r="AH34" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:35">
-      <c r="B35" s="37"/>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B35" s="40"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2">
         <v>32</v>
@@ -4092,24 +4311,24 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="L35" s="34">
+      <c r="L35" s="30">
         <v>100</v>
       </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="36"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="32"/>
       <c r="AE35" s="5">
         <v>32</v>
       </c>
@@ -4119,13 +4338,13 @@
       <c r="AG35" s="2">
         <v>80</v>
       </c>
-      <c r="AH35" s="29"/>
+      <c r="AH35" s="34"/>
       <c r="AI35" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:35">
-      <c r="B36" s="37"/>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B36" s="40"/>
       <c r="C36" s="26" t="s">
         <v>41</v>
       </c>
@@ -4143,26 +4362,26 @@
       <c r="K36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="31" t="s">
+      <c r="L36" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="33" t="s">
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
       <c r="AE36" s="5">
         <v>33</v>
       </c>
@@ -4172,13 +4391,13 @@
       <c r="AG36" s="2">
         <v>16</v>
       </c>
-      <c r="AH36" s="29"/>
+      <c r="AH36" s="34"/>
       <c r="AI36" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:35">
-      <c r="B37" s="37"/>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B37" s="40"/>
       <c r="C37" s="26"/>
       <c r="D37" s="2">
         <v>34</v>
@@ -4191,26 +4410,26 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="L37" s="39">
+      <c r="L37" s="35">
         <v>128</v>
       </c>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="42">
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="39">
         <v>40</v>
       </c>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
       <c r="AE37" s="5">
         <v>34</v>
       </c>
@@ -4220,13 +4439,13 @@
       <c r="AG37" s="2">
         <v>8</v>
       </c>
-      <c r="AH37" s="29"/>
+      <c r="AH37" s="34"/>
       <c r="AI37" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:35">
-      <c r="B38" s="37"/>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B38" s="40"/>
       <c r="C38" s="26" t="s">
         <v>48</v>
       </c>
@@ -4244,26 +4463,26 @@
       <c r="K38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="31" t="s">
+      <c r="L38" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="33" t="s">
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
       <c r="AE38" s="5">
         <v>35</v>
       </c>
@@ -4273,13 +4492,13 @@
       <c r="AG38" s="2">
         <v>0</v>
       </c>
-      <c r="AH38" s="29"/>
+      <c r="AH38" s="34"/>
       <c r="AI38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:35">
-      <c r="B39" s="37"/>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B39" s="40"/>
       <c r="C39" s="26"/>
       <c r="D39" s="2">
         <v>36</v>
@@ -4292,17 +4511,17 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="L39" s="34">
+      <c r="L39" s="30">
         <v>128</v>
       </c>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="36"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="32"/>
       <c r="U39" s="26">
         <v>40</v>
       </c>
@@ -4321,15 +4540,15 @@
       <c r="AG39" s="2">
         <v>46</v>
       </c>
-      <c r="AH39" s="30" t="s">
+      <c r="AH39" s="33" t="s">
         <v>85</v>
       </c>
       <c r="AI39" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:35">
-      <c r="B40" s="37"/>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B40" s="40"/>
       <c r="C40" s="26" t="s">
         <v>55</v>
       </c>
@@ -4347,12 +4566,12 @@
       <c r="K40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="31" t="s">
+      <c r="L40" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
       <c r="P40" s="7">
         <v>11</v>
       </c>
@@ -4398,13 +4617,13 @@
       <c r="AG40" s="2">
         <v>80</v>
       </c>
-      <c r="AH40" s="29"/>
+      <c r="AH40" s="34"/>
       <c r="AI40" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:35">
-      <c r="B41" s="37"/>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B41" s="40"/>
       <c r="C41" s="26"/>
       <c r="D41" s="2">
         <v>38</v>
@@ -4417,12 +4636,12 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="L41" s="34">
+      <c r="L41" s="30">
         <v>1</v>
       </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="36"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="32"/>
       <c r="P41" s="1">
         <v>0</v>
       </c>
@@ -4468,13 +4687,13 @@
       <c r="AG41" s="2">
         <v>16</v>
       </c>
-      <c r="AH41" s="29"/>
+      <c r="AH41" s="34"/>
       <c r="AI41" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:35">
-      <c r="B42" s="37"/>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B42" s="40"/>
       <c r="C42" s="26" t="s">
         <v>60</v>
       </c>
@@ -4492,12 +4711,12 @@
       <c r="K42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L42" s="31" t="s">
+      <c r="L42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
       <c r="P42" s="7">
         <v>11</v>
       </c>
@@ -4543,13 +4762,13 @@
       <c r="AG42" s="2">
         <v>8</v>
       </c>
-      <c r="AH42" s="29"/>
+      <c r="AH42" s="34"/>
       <c r="AI42" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:35">
-      <c r="B43" s="37"/>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B43" s="40"/>
       <c r="C43" s="26"/>
       <c r="D43" s="2">
         <v>40</v>
@@ -4562,12 +4781,12 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="L43" s="34">
+      <c r="L43" s="30">
         <v>1</v>
       </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="36"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="32"/>
       <c r="P43" s="1">
         <v>1</v>
       </c>
@@ -4613,12 +4832,12 @@
       <c r="AG43" s="2">
         <v>0</v>
       </c>
-      <c r="AH43" s="29"/>
+      <c r="AH43" s="34"/>
       <c r="AI43" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:35">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>90</v>
@@ -4642,14 +4861,14 @@
       <c r="AG44" s="2">
         <v>47</v>
       </c>
-      <c r="AH44" s="30" t="s">
+      <c r="AH44" s="33" t="s">
         <v>92</v>
       </c>
       <c r="AI44" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:35">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>93</v>
@@ -4673,12 +4892,12 @@
       <c r="AG45" s="2">
         <v>50</v>
       </c>
-      <c r="AH45" s="29"/>
+      <c r="AH45" s="34"/>
       <c r="AI45" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:35">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>95</v>
@@ -4702,12 +4921,12 @@
       <c r="AG46" s="2">
         <v>16</v>
       </c>
-      <c r="AH46" s="29"/>
+      <c r="AH46" s="34"/>
       <c r="AI46" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:35">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>97</v>
@@ -4731,12 +4950,12 @@
       <c r="AG47" s="2">
         <v>8</v>
       </c>
-      <c r="AH47" s="29"/>
+      <c r="AH47" s="34"/>
       <c r="AI47" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:35">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="15" t="s">
         <v>384</v>
@@ -4760,12 +4979,12 @@
       <c r="AG48" s="2">
         <v>0</v>
       </c>
-      <c r="AH48" s="29"/>
+      <c r="AH48" s="34"/>
       <c r="AI48" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:35">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="16" t="s">
         <v>385</v>
@@ -4789,14 +5008,14 @@
       <c r="AG49" s="2">
         <v>48</v>
       </c>
-      <c r="AH49" s="30" t="s">
+      <c r="AH49" s="33" t="s">
         <v>101</v>
       </c>
       <c r="AI49" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:35">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="14" t="s">
         <v>386</v>
@@ -4822,12 +5041,12 @@
       <c r="AG50" s="2">
         <v>50</v>
       </c>
-      <c r="AH50" s="29"/>
+      <c r="AH50" s="34"/>
       <c r="AI50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:35">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="14" t="s">
         <v>388</v>
@@ -4851,12 +5070,12 @@
       <c r="AG51" s="2">
         <v>16</v>
       </c>
-      <c r="AH51" s="29"/>
+      <c r="AH51" s="34"/>
       <c r="AI51" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:35">
+    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="17" t="s">
         <v>104</v>
@@ -4880,12 +5099,12 @@
       <c r="AG52" s="2">
         <v>8</v>
       </c>
-      <c r="AH52" s="29"/>
+      <c r="AH52" s="34"/>
       <c r="AI52" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:35">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="17" t="s">
         <v>106</v>
@@ -4909,12 +5128,12 @@
       <c r="AG53" s="2">
         <v>0</v>
       </c>
-      <c r="AH53" s="29"/>
+      <c r="AH53" s="34"/>
       <c r="AI53" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:35">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
       <c r="C54" s="17" t="s">
         <v>108</v>
@@ -4938,14 +5157,14 @@
       <c r="AG54" s="2">
         <v>48</v>
       </c>
-      <c r="AH54" s="30" t="s">
+      <c r="AH54" s="33" t="s">
         <v>110</v>
       </c>
       <c r="AI54" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:35">
+    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B55" s="16"/>
       <c r="C55" s="18" t="s">
         <v>111</v>
@@ -4970,12 +5189,12 @@
       <c r="AG55" s="2">
         <v>50</v>
       </c>
-      <c r="AH55" s="29"/>
+      <c r="AH55" s="34"/>
       <c r="AI55" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:35">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="17" t="s">
         <v>113</v>
@@ -4994,10 +5213,10 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="6"/>
       <c r="AG56" s="2"/>
-      <c r="AH56" s="29"/>
+      <c r="AH56" s="34"/>
       <c r="AI56" s="5"/>
     </row>
-    <row r="57" spans="2:35">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="17" t="s">
         <v>389</v>
@@ -5022,12 +5241,12 @@
       <c r="AG57" s="2">
         <v>16</v>
       </c>
-      <c r="AH57" s="29"/>
+      <c r="AH57" s="34"/>
       <c r="AI57" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:35">
+    <row r="58" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="17" t="s">
         <v>115</v>
@@ -5052,12 +5271,12 @@
       <c r="AG58" s="2">
         <v>8</v>
       </c>
-      <c r="AH58" s="29"/>
+      <c r="AH58" s="34"/>
       <c r="AI58" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:35">
+    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="18" t="s">
         <v>117</v>
@@ -5082,12 +5301,12 @@
       <c r="AG59" s="2">
         <v>0</v>
       </c>
-      <c r="AH59" s="29"/>
+      <c r="AH59" s="34"/>
       <c r="AI59" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:35">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="18" t="s">
         <v>119</v>
@@ -5112,14 +5331,14 @@
       <c r="AG60" s="2">
         <v>52</v>
       </c>
-      <c r="AH60" s="30" t="s">
+      <c r="AH60" s="33" t="s">
         <v>121</v>
       </c>
       <c r="AI60" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:35">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="18" t="s">
         <v>122</v>
@@ -5144,12 +5363,12 @@
       <c r="AG61" s="2">
         <v>50</v>
       </c>
-      <c r="AH61" s="29"/>
+      <c r="AH61" s="34"/>
       <c r="AI61" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:35">
+    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="18" t="s">
         <v>124</v>
@@ -5174,12 +5393,12 @@
       <c r="AG62" s="2">
         <v>16</v>
       </c>
-      <c r="AH62" s="29"/>
+      <c r="AH62" s="34"/>
       <c r="AI62" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:35">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="18" t="s">
         <v>126</v>
@@ -5204,12 +5423,12 @@
       <c r="AG63" s="2">
         <v>8</v>
       </c>
-      <c r="AH63" s="29"/>
+      <c r="AH63" s="34"/>
       <c r="AI63" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="2:35">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="18" t="s">
         <v>128</v>
@@ -5234,12 +5453,12 @@
       <c r="AG64" s="2">
         <v>0</v>
       </c>
-      <c r="AH64" s="29"/>
+      <c r="AH64" s="34"/>
       <c r="AI64" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:35">
+    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="18" t="s">
         <v>130</v>
@@ -5264,14 +5483,14 @@
       <c r="AG65" s="2">
         <v>36</v>
       </c>
-      <c r="AH65" s="30" t="s">
+      <c r="AH65" s="33" t="s">
         <v>132</v>
       </c>
       <c r="AI65" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:35">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="16" t="s">
         <v>133</v>
@@ -5296,14 +5515,14 @@
       <c r="AG66" s="2">
         <v>50</v>
       </c>
-      <c r="AH66" s="30"/>
+      <c r="AH66" s="33"/>
       <c r="AI66" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="2:35">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="41" t="s">
         <v>135</v>
       </c>
       <c r="D67" s="16">
@@ -5326,14 +5545,14 @@
       <c r="AG67" s="2">
         <v>16</v>
       </c>
-      <c r="AH67" s="30"/>
+      <c r="AH67" s="33"/>
       <c r="AI67" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:35">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
-      <c r="C68" s="28"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="16">
         <v>65</v>
       </c>
@@ -5354,14 +5573,14 @@
       <c r="AG68" s="2">
         <v>8</v>
       </c>
-      <c r="AH68" s="30"/>
+      <c r="AH68" s="33"/>
       <c r="AI68" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:35">
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="42" t="s">
         <v>137</v>
       </c>
       <c r="D69" s="16">
@@ -5384,14 +5603,14 @@
       <c r="AG69" s="2">
         <v>0</v>
       </c>
-      <c r="AH69" s="30"/>
+      <c r="AH69" s="33"/>
       <c r="AI69" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:35">
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
-      <c r="C70" s="28"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="16">
         <v>67</v>
       </c>
@@ -5412,16 +5631,16 @@
       <c r="AG70" s="2">
         <v>36</v>
       </c>
-      <c r="AH70" s="30" t="s">
+      <c r="AH70" s="33" t="s">
         <v>143</v>
       </c>
       <c r="AI70" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:35">
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="41" t="s">
         <v>139</v>
       </c>
       <c r="D71" s="16">
@@ -5444,14 +5663,14 @@
       <c r="AG71" s="2">
         <v>50</v>
       </c>
-      <c r="AH71" s="30"/>
+      <c r="AH71" s="33"/>
       <c r="AI71" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="2:35">
+    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
-      <c r="C72" s="28"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="16">
         <v>69</v>
       </c>
@@ -5471,14 +5690,14 @@
       <c r="AG72" s="2">
         <v>16</v>
       </c>
-      <c r="AH72" s="30"/>
+      <c r="AH72" s="33"/>
       <c r="AI72" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:35">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="41" t="s">
         <v>141</v>
       </c>
       <c r="D73" s="16">
@@ -5500,14 +5719,14 @@
       <c r="AG73" s="2">
         <v>8</v>
       </c>
-      <c r="AH73" s="30"/>
+      <c r="AH73" s="33"/>
       <c r="AI73" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="2:35">
+    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
-      <c r="C74" s="28"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="16">
         <v>71</v>
       </c>
@@ -5527,14 +5746,14 @@
       <c r="AG74" s="2">
         <v>0</v>
       </c>
-      <c r="AH74" s="30"/>
+      <c r="AH74" s="33"/>
       <c r="AI74" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:35">
+    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="42" t="s">
         <v>144</v>
       </c>
       <c r="D75" s="16">
@@ -5556,16 +5775,16 @@
       <c r="AG75" s="2">
         <v>36</v>
       </c>
-      <c r="AH75" s="30" t="s">
+      <c r="AH75" s="33" t="s">
         <v>153</v>
       </c>
       <c r="AI75" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:35">
+    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
-      <c r="C76" s="28"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="16">
         <v>73</v>
       </c>
@@ -5585,14 +5804,14 @@
       <c r="AG76" s="2">
         <v>50</v>
       </c>
-      <c r="AH76" s="30"/>
+      <c r="AH76" s="33"/>
       <c r="AI76" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:35">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="41" t="s">
         <v>146</v>
       </c>
       <c r="D77" s="16">
@@ -5614,14 +5833,14 @@
       <c r="AG77" s="2">
         <v>16</v>
       </c>
-      <c r="AH77" s="30"/>
+      <c r="AH77" s="33"/>
       <c r="AI77" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="2:35">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
-      <c r="C78" s="28"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="16">
         <v>75</v>
       </c>
@@ -5637,14 +5856,14 @@
       <c r="AG78" s="2">
         <v>8</v>
       </c>
-      <c r="AH78" s="30"/>
+      <c r="AH78" s="33"/>
       <c r="AI78" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="2:35">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="42" t="s">
         <v>148</v>
       </c>
       <c r="D79" s="16">
@@ -5662,14 +5881,14 @@
       <c r="AG79" s="2">
         <v>0</v>
       </c>
-      <c r="AH79" s="30"/>
+      <c r="AH79" s="33"/>
       <c r="AI79" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="2:35">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
-      <c r="C80" s="28"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="16">
         <v>77</v>
       </c>
@@ -5686,17 +5905,17 @@
       <c r="AG80" s="2">
         <v>35</v>
       </c>
-      <c r="AH80" s="30" t="s">
+      <c r="AH80" s="33" t="s">
         <v>161</v>
       </c>
       <c r="AI80" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:35">
+    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="26" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="D81" s="2">
         <v>78</v>
@@ -5705,7 +5924,7 @@
         <v>40</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>391</v>
+        <v>506</v>
       </c>
       <c r="J81" s="3"/>
       <c r="AE81" s="5">
@@ -5717,12 +5936,12 @@
       <c r="AG81" s="2">
         <v>50</v>
       </c>
-      <c r="AH81" s="30"/>
+      <c r="AH81" s="33"/>
       <c r="AI81" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="2:35">
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="26"/>
       <c r="D82" s="2">
@@ -5741,14 +5960,14 @@
       <c r="AG82" s="2">
         <v>16</v>
       </c>
-      <c r="AH82" s="30"/>
+      <c r="AH82" s="33"/>
       <c r="AI82" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:35">
+    <row r="83" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D83" s="16">
@@ -5767,14 +5986,14 @@
       <c r="AG83" s="2">
         <v>8</v>
       </c>
-      <c r="AH83" s="30"/>
+      <c r="AH83" s="33"/>
       <c r="AI83" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="2:35">
+    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
-      <c r="C84" s="28"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="16">
         <v>81</v>
       </c>
@@ -5791,14 +6010,14 @@
       <c r="AG84" s="2">
         <v>0</v>
       </c>
-      <c r="AH84" s="30"/>
+      <c r="AH84" s="33"/>
       <c r="AI84" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:35">
+    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="41" t="s">
         <v>154</v>
       </c>
       <c r="D85" s="16">
@@ -5817,16 +6036,16 @@
       <c r="AG85" s="2">
         <v>35</v>
       </c>
-      <c r="AH85" s="30" t="s">
+      <c r="AH85" s="33" t="s">
         <v>167</v>
       </c>
       <c r="AI85" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:35">
+    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
-      <c r="C86" s="28"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="16">
         <v>83</v>
       </c>
@@ -5843,14 +6062,14 @@
       <c r="AG86" s="2">
         <v>50</v>
       </c>
-      <c r="AH86" s="30"/>
+      <c r="AH86" s="33"/>
       <c r="AI86" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="2:35">
+    <row r="87" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="41" t="s">
         <v>156</v>
       </c>
       <c r="D87" s="16">
@@ -5869,14 +6088,14 @@
       <c r="AG87" s="2">
         <v>16</v>
       </c>
-      <c r="AH87" s="30"/>
+      <c r="AH87" s="33"/>
       <c r="AI87" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:35">
+    <row r="88" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
-      <c r="C88" s="28"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="16">
         <v>85</v>
       </c>
@@ -5893,15 +6112,15 @@
       <c r="AG88" s="2">
         <v>8</v>
       </c>
-      <c r="AH88" s="30"/>
+      <c r="AH88" s="33"/>
       <c r="AI88" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:35">
+    <row r="89" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
       <c r="C89" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D89" s="16">
         <v>86</v>
@@ -5911,13 +6130,13 @@
       <c r="AE89" s="5"/>
       <c r="AF89" s="6"/>
       <c r="AG89" s="14"/>
-      <c r="AH89" s="30"/>
+      <c r="AH89" s="33"/>
       <c r="AI89" s="5"/>
     </row>
-    <row r="90" spans="2:35">
+    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
       <c r="C90" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D90" s="16">
         <v>87</v>
@@ -5927,13 +6146,13 @@
       <c r="AE90" s="5"/>
       <c r="AF90" s="6"/>
       <c r="AG90" s="14"/>
-      <c r="AH90" s="30"/>
+      <c r="AH90" s="33"/>
       <c r="AI90" s="5"/>
     </row>
-    <row r="91" spans="2:35">
+    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D91" s="14">
         <v>88</v>
@@ -5942,21 +6161,21 @@
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J91" s="3"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="6"/>
       <c r="AG91" s="14"/>
-      <c r="AH91" s="30"/>
+      <c r="AH91" s="33"/>
       <c r="AI91" s="5"/>
     </row>
-    <row r="92" spans="2:35">
+    <row r="92" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B92" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="C92" s="27" t="s">
-        <v>392</v>
+      <c r="C92" s="41" t="s">
+        <v>390</v>
       </c>
       <c r="D92" s="16">
         <v>89</v>
@@ -5974,14 +6193,14 @@
       <c r="AG92" s="2">
         <v>0</v>
       </c>
-      <c r="AH92" s="30"/>
+      <c r="AH92" s="33"/>
       <c r="AI92" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:35">
+    <row r="93" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B93" s="26"/>
-      <c r="C93" s="28"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="16">
         <v>90</v>
       </c>
@@ -5998,17 +6217,17 @@
       <c r="AG93" s="2">
         <v>36</v>
       </c>
-      <c r="AH93" s="30" t="s">
+      <c r="AH93" s="33" t="s">
         <v>173</v>
       </c>
       <c r="AI93" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:35">
+    <row r="94" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B94" s="26"/>
-      <c r="C94" s="28" t="s">
-        <v>393</v>
+      <c r="C94" s="42" t="s">
+        <v>391</v>
       </c>
       <c r="D94" s="16">
         <v>91</v>
@@ -6026,14 +6245,14 @@
       <c r="AG94" s="2">
         <v>50</v>
       </c>
-      <c r="AH94" s="30"/>
+      <c r="AH94" s="33"/>
       <c r="AI94" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="2:35">
+    <row r="95" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B95" s="26"/>
-      <c r="C95" s="28"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="16">
         <v>92</v>
       </c>
@@ -6050,15 +6269,15 @@
       <c r="AG95" s="2">
         <v>16</v>
       </c>
-      <c r="AH95" s="30"/>
+      <c r="AH95" s="33"/>
       <c r="AI95" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="2:35">
+    <row r="96" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B96" s="26"/>
       <c r="C96" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D96" s="16">
         <v>93</v>
@@ -6068,10 +6287,10 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="6"/>
       <c r="AG96" s="14"/>
-      <c r="AH96" s="30"/>
+      <c r="AH96" s="33"/>
       <c r="AI96" s="5"/>
     </row>
-    <row r="97" spans="2:35">
+    <row r="97" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B97" s="26"/>
       <c r="C97" s="26" t="s">
         <v>7</v>
@@ -6083,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J97" s="3"/>
       <c r="AE97" s="5">
@@ -6095,12 +6314,12 @@
       <c r="AG97" s="2">
         <v>8</v>
       </c>
-      <c r="AH97" s="30"/>
+      <c r="AH97" s="33"/>
       <c r="AI97" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:35">
+    <row r="98" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
       <c r="D98" s="14">
@@ -6110,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J98" s="3"/>
       <c r="AE98" s="5">
@@ -6122,12 +6341,12 @@
       <c r="AG98" s="2">
         <v>0</v>
       </c>
-      <c r="AH98" s="30"/>
+      <c r="AH98" s="33"/>
       <c r="AI98" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:35">
+    <row r="99" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B99" s="26"/>
       <c r="C99" s="26">
         <v>20</v>
@@ -6139,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J99" s="3"/>
       <c r="AE99" s="5">
@@ -6151,14 +6370,14 @@
       <c r="AG99" s="2">
         <v>32</v>
       </c>
-      <c r="AH99" s="30" t="s">
+      <c r="AH99" s="33" t="s">
         <v>179</v>
       </c>
       <c r="AI99" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:35">
+    <row r="100" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
       <c r="D100" s="14">
@@ -6177,12 +6396,12 @@
       <c r="AG100" s="2">
         <v>64</v>
       </c>
-      <c r="AH100" s="30"/>
+      <c r="AH100" s="33"/>
       <c r="AI100" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="2:35">
+    <row r="101" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B101" s="26"/>
       <c r="C101" s="26">
         <v>21</v>
@@ -6203,12 +6422,12 @@
       <c r="AG101" s="2">
         <v>8</v>
       </c>
-      <c r="AH101" s="30"/>
+      <c r="AH101" s="33"/>
       <c r="AI101" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="2:35">
+    <row r="102" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
       <c r="D102" s="14">
@@ -6227,12 +6446,12 @@
       <c r="AG102" s="2">
         <v>4</v>
       </c>
-      <c r="AH102" s="30"/>
+      <c r="AH102" s="33"/>
       <c r="AI102" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="2:35">
+    <row r="103" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B103" s="26"/>
       <c r="C103" s="26">
         <v>22</v>
@@ -6253,12 +6472,12 @@
       <c r="AG103" s="2">
         <v>0</v>
       </c>
-      <c r="AH103" s="30"/>
+      <c r="AH103" s="33"/>
       <c r="AI103" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="2:35">
+    <row r="104" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
       <c r="D104" s="14">
@@ -6277,14 +6496,14 @@
       <c r="AG104" s="2">
         <v>32</v>
       </c>
-      <c r="AH104" s="30" t="s">
+      <c r="AH104" s="33" t="s">
         <v>185</v>
       </c>
       <c r="AI104" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:35">
+    <row r="105" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B105" s="26"/>
       <c r="C105" s="26">
         <v>23</v>
@@ -6305,12 +6524,12 @@
       <c r="AG105" s="2">
         <v>64</v>
       </c>
-      <c r="AH105" s="30"/>
+      <c r="AH105" s="33"/>
       <c r="AI105" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="2:35">
+    <row r="106" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B106" s="26"/>
       <c r="C106" s="26"/>
       <c r="D106" s="14">
@@ -6329,12 +6548,12 @@
       <c r="AG106" s="2">
         <v>8</v>
       </c>
-      <c r="AH106" s="30"/>
+      <c r="AH106" s="33"/>
       <c r="AI106" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:35">
+    <row r="107" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B107" s="26"/>
       <c r="C107" s="26">
         <v>27</v>
@@ -6355,12 +6574,12 @@
       <c r="AG107" s="2">
         <v>4</v>
       </c>
-      <c r="AH107" s="30"/>
+      <c r="AH107" s="33"/>
       <c r="AI107" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="2:35">
+    <row r="108" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B108" s="26"/>
       <c r="C108" s="26"/>
       <c r="D108" s="14">
@@ -6379,12 +6598,12 @@
       <c r="AG108" s="2">
         <v>0</v>
       </c>
-      <c r="AH108" s="30"/>
+      <c r="AH108" s="33"/>
       <c r="AI108" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="2:35">
+    <row r="109" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B109" s="26"/>
       <c r="C109" s="26" t="s">
         <v>41</v>
@@ -6405,14 +6624,14 @@
       <c r="AG109" s="2">
         <v>32</v>
       </c>
-      <c r="AH109" s="30" t="s">
+      <c r="AH109" s="33" t="s">
         <v>191</v>
       </c>
       <c r="AI109" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="2:35">
+    <row r="110" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
       <c r="D110" s="14">
@@ -6431,12 +6650,12 @@
       <c r="AG110" s="2">
         <v>64</v>
       </c>
-      <c r="AH110" s="30"/>
+      <c r="AH110" s="33"/>
       <c r="AI110" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="2:35">
+    <row r="111" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B111" s="26"/>
       <c r="C111" s="26" t="s">
         <v>48</v>
@@ -6457,12 +6676,12 @@
       <c r="AG111" s="2">
         <v>8</v>
       </c>
-      <c r="AH111" s="30"/>
+      <c r="AH111" s="33"/>
       <c r="AI111" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:35">
+    <row r="112" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
       <c r="D112" s="14">
@@ -6481,12 +6700,12 @@
       <c r="AG112" s="2">
         <v>4</v>
       </c>
-      <c r="AH112" s="30"/>
+      <c r="AH112" s="33"/>
       <c r="AI112" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="2:35">
+    <row r="113" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B113" s="26"/>
       <c r="C113" s="26" t="s">
         <v>55</v>
@@ -6507,12 +6726,12 @@
       <c r="AG113" s="2">
         <v>0</v>
       </c>
-      <c r="AH113" s="30"/>
+      <c r="AH113" s="33"/>
       <c r="AI113" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="2:35">
+    <row r="114" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B114" s="26"/>
       <c r="C114" s="26"/>
       <c r="D114" s="14">
@@ -6531,14 +6750,14 @@
       <c r="AG114" s="2">
         <v>32</v>
       </c>
-      <c r="AH114" s="30" t="s">
+      <c r="AH114" s="33" t="s">
         <v>197</v>
       </c>
       <c r="AI114" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:35">
+    <row r="115" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B115" s="26"/>
       <c r="C115" s="26" t="s">
         <v>60</v>
@@ -6559,12 +6778,12 @@
       <c r="AG115" s="2">
         <v>64</v>
       </c>
-      <c r="AH115" s="30"/>
+      <c r="AH115" s="33"/>
       <c r="AI115" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="2:35">
+    <row r="116" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B116" s="26"/>
       <c r="C116" s="26"/>
       <c r="D116" s="14">
@@ -6583,12 +6802,12 @@
       <c r="AG116" s="2">
         <v>8</v>
       </c>
-      <c r="AH116" s="30"/>
+      <c r="AH116" s="33"/>
       <c r="AI116" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="2:35">
+    <row r="117" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B117" s="13"/>
       <c r="C117" s="13" t="s">
         <v>366</v>
@@ -6609,12 +6828,12 @@
       <c r="AG117" s="2">
         <v>4</v>
       </c>
-      <c r="AH117" s="30"/>
+      <c r="AH117" s="33"/>
       <c r="AI117" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="2:35">
+    <row r="118" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
       <c r="C118" s="13" t="s">
         <v>367</v>
@@ -6635,22 +6854,22 @@
       <c r="AG118" s="2">
         <v>0</v>
       </c>
-      <c r="AH118" s="30"/>
+      <c r="AH118" s="33"/>
       <c r="AI118" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="2:35">
+    <row r="119" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
       <c r="C119" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D119" s="14">
         <v>116</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J119" s="3"/>
       <c r="AE119" s="5">
@@ -6662,24 +6881,24 @@
       <c r="AG119" s="2">
         <v>32</v>
       </c>
-      <c r="AH119" s="30" t="s">
+      <c r="AH119" s="33" t="s">
         <v>203</v>
       </c>
       <c r="AI119" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:35">
+    <row r="120" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
       <c r="C120" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D120" s="14">
         <v>117</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J120" s="3"/>
       <c r="AE120" s="5">
@@ -6691,15 +6910,15 @@
       <c r="AG120" s="2">
         <v>64</v>
       </c>
-      <c r="AH120" s="30"/>
+      <c r="AH120" s="33"/>
       <c r="AI120" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:35">
+    <row r="121" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B121" s="13"/>
       <c r="C121" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D121" s="16">
         <v>118</v>
@@ -6717,15 +6936,15 @@
       <c r="AG121" s="2">
         <v>8</v>
       </c>
-      <c r="AH121" s="30"/>
+      <c r="AH121" s="33"/>
       <c r="AI121" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="2:35">
+    <row r="122" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
       <c r="C122" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D122" s="16">
         <v>119</v>
@@ -6741,15 +6960,15 @@
       <c r="AG122" s="2">
         <v>4</v>
       </c>
-      <c r="AH122" s="30"/>
+      <c r="AH122" s="33"/>
       <c r="AI122" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="2:35">
+    <row r="123" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B123" s="13"/>
       <c r="C123" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D123" s="16">
         <v>120</v>
@@ -6765,15 +6984,15 @@
       <c r="AG123" s="2">
         <v>0</v>
       </c>
-      <c r="AH123" s="30"/>
+      <c r="AH123" s="33"/>
       <c r="AI123" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="2:35">
+    <row r="124" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B124" s="13"/>
       <c r="C124" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D124" s="16">
         <v>121</v>
@@ -6789,17 +7008,17 @@
       <c r="AG124" s="2">
         <v>32</v>
       </c>
-      <c r="AH124" s="30" t="s">
+      <c r="AH124" s="33" t="s">
         <v>209</v>
       </c>
       <c r="AI124" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:35">
+    <row r="125" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
       <c r="C125" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D125" s="15">
         <v>122</v>
@@ -6815,15 +7034,15 @@
       <c r="AG125" s="2">
         <v>64</v>
       </c>
-      <c r="AH125" s="30"/>
+      <c r="AH125" s="33"/>
       <c r="AI125" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="2:35">
+    <row r="126" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D126" s="14">
         <v>123</v>
@@ -6839,15 +7058,15 @@
       <c r="AG126" s="2">
         <v>8</v>
       </c>
-      <c r="AH126" s="30"/>
+      <c r="AH126" s="33"/>
       <c r="AI126" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="2:35">
+    <row r="127" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D127" s="14">
         <v>124</v>
@@ -6863,15 +7082,15 @@
       <c r="AG127" s="2">
         <v>4</v>
       </c>
-      <c r="AH127" s="30"/>
+      <c r="AH127" s="33"/>
       <c r="AI127" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="2:35">
+    <row r="128" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D128" s="14">
         <v>125</v>
@@ -6887,15 +7106,15 @@
       <c r="AG128" s="2">
         <v>0</v>
       </c>
-      <c r="AH128" s="30"/>
+      <c r="AH128" s="33"/>
       <c r="AI128" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:35">
+    <row r="129" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D129" s="14">
         <v>126</v>
@@ -6911,17 +7130,17 @@
       <c r="AG129" s="2">
         <v>30</v>
       </c>
-      <c r="AH129" s="29" t="s">
+      <c r="AH129" s="34" t="s">
         <v>215</v>
       </c>
       <c r="AI129" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="2:35">
+    <row r="130" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D130" s="14">
         <v>127</v>
@@ -6937,15 +7156,15 @@
       <c r="AG130" s="2">
         <v>50</v>
       </c>
-      <c r="AH130" s="29"/>
+      <c r="AH130" s="34"/>
       <c r="AI130" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="2:35">
+    <row r="131" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D131" s="14">
         <v>128</v>
@@ -6961,22 +7180,22 @@
       <c r="AG131" s="2">
         <v>8</v>
       </c>
-      <c r="AH131" s="29"/>
+      <c r="AH131" s="34"/>
       <c r="AI131" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="2:35">
+    <row r="132" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B132" s="14"/>
       <c r="C132" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D132" s="14">
         <v>129</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J132" s="3"/>
       <c r="AE132" s="5">
@@ -6988,22 +7207,22 @@
       <c r="AG132" s="2">
         <v>8</v>
       </c>
-      <c r="AH132" s="29"/>
+      <c r="AH132" s="34"/>
       <c r="AI132" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="2:35">
+    <row r="133" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D133" s="14">
         <v>130</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J133" s="3"/>
       <c r="AE133" s="5">
@@ -7015,14 +7234,14 @@
       <c r="AG133" s="2">
         <v>25</v>
       </c>
-      <c r="AH133" s="29" t="s">
+      <c r="AH133" s="34" t="s">
         <v>220</v>
       </c>
       <c r="AI133" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="2:35">
+    <row r="134" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14">
@@ -7039,12 +7258,12 @@
       <c r="AG134" s="2">
         <v>180</v>
       </c>
-      <c r="AH134" s="29"/>
+      <c r="AH134" s="34"/>
       <c r="AI134" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="2:35">
+    <row r="135" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
       <c r="D135" s="14">
@@ -7061,12 +7280,12 @@
       <c r="AG135" s="2">
         <v>40</v>
       </c>
-      <c r="AH135" s="29"/>
+      <c r="AH135" s="34"/>
       <c r="AI135" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="2:35">
+    <row r="136" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14">
@@ -7083,12 +7302,12 @@
       <c r="AG136" s="2">
         <v>8</v>
       </c>
-      <c r="AH136" s="29"/>
+      <c r="AH136" s="34"/>
       <c r="AI136" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="2:35">
+    <row r="137" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="J137" s="3"/>
       <c r="AE137" s="5">
@@ -7100,14 +7319,14 @@
       <c r="AG137" s="2">
         <v>56</v>
       </c>
-      <c r="AH137" s="29" t="s">
+      <c r="AH137" s="34" t="s">
         <v>225</v>
       </c>
       <c r="AI137" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="2:35">
+    <row r="138" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="J138" s="3"/>
       <c r="AE138" s="5">
@@ -7119,12 +7338,12 @@
       <c r="AG138" s="2">
         <v>30</v>
       </c>
-      <c r="AH138" s="29"/>
+      <c r="AH138" s="34"/>
       <c r="AI138" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="2:35">
+    <row r="139" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="J139" s="3"/>
       <c r="AE139" s="5">
@@ -7136,14 +7355,14 @@
       <c r="AG139" s="2">
         <v>30</v>
       </c>
-      <c r="AH139" s="29" t="s">
+      <c r="AH139" s="34" t="s">
         <v>228</v>
       </c>
       <c r="AI139" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:35">
+    <row r="140" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="J140" s="3"/>
       <c r="AE140" s="5">
@@ -7155,12 +7374,12 @@
       <c r="AG140" s="2">
         <v>30</v>
       </c>
-      <c r="AH140" s="29"/>
+      <c r="AH140" s="34"/>
       <c r="AI140" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="2:35">
+    <row r="141" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="J141" s="3"/>
       <c r="AE141" s="5">
@@ -7179,7 +7398,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="2:35">
+    <row r="142" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="J142" s="3"/>
       <c r="AE142" s="5">
@@ -7191,14 +7410,14 @@
       <c r="AG142" s="2">
         <v>80</v>
       </c>
-      <c r="AH142" s="29" t="s">
+      <c r="AH142" s="34" t="s">
         <v>234</v>
       </c>
       <c r="AI142" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="2:35">
+    <row r="143" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="J143" s="3"/>
       <c r="AE143" s="5">
@@ -7210,12 +7429,12 @@
       <c r="AG143" s="2">
         <v>80</v>
       </c>
-      <c r="AH143" s="29"/>
+      <c r="AH143" s="34"/>
       <c r="AI143" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="2:35">
+    <row r="144" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="J144" s="3"/>
       <c r="AE144" s="5">
@@ -7227,12 +7446,12 @@
       <c r="AG144" s="2">
         <v>5</v>
       </c>
-      <c r="AH144" s="29"/>
+      <c r="AH144" s="34"/>
       <c r="AI144" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="2:35">
+    <row r="145" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="J145" s="3"/>
       <c r="AE145" s="5">
@@ -7244,12 +7463,12 @@
       <c r="AG145" s="2">
         <v>0</v>
       </c>
-      <c r="AH145" s="29"/>
+      <c r="AH145" s="34"/>
       <c r="AI145" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="2:35">
+    <row r="146" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="J146" s="3"/>
       <c r="AE146" s="5">
@@ -7261,12 +7480,12 @@
       <c r="AG146" s="2">
         <v>64</v>
       </c>
-      <c r="AH146" s="29"/>
+      <c r="AH146" s="34"/>
       <c r="AI146" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="2:35">
+    <row r="147" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="J147" s="3"/>
       <c r="AE147" s="5">
@@ -7278,12 +7497,12 @@
       <c r="AG147" s="2">
         <v>60</v>
       </c>
-      <c r="AH147" s="29"/>
+      <c r="AH147" s="34"/>
       <c r="AI147" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="2:35">
+    <row r="148" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="J148" s="3"/>
       <c r="AE148" s="5">
@@ -7295,12 +7514,12 @@
       <c r="AG148" s="2">
         <v>5</v>
       </c>
-      <c r="AH148" s="29"/>
+      <c r="AH148" s="34"/>
       <c r="AI148" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="149" spans="2:35">
+    <row r="149" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="J149" s="3"/>
       <c r="AE149" s="5">
@@ -7312,12 +7531,12 @@
       <c r="AG149" s="2">
         <v>0</v>
       </c>
-      <c r="AH149" s="29"/>
+      <c r="AH149" s="34"/>
       <c r="AI149" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="2:35">
+    <row r="150" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="J150" s="3"/>
       <c r="AE150" s="5">
@@ -7329,12 +7548,12 @@
       <c r="AG150" s="2">
         <v>1</v>
       </c>
-      <c r="AH150" s="29"/>
+      <c r="AH150" s="34"/>
       <c r="AI150" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="2:35">
+    <row r="151" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="J151" s="3"/>
       <c r="AE151" s="5">
@@ -7346,12 +7565,12 @@
       <c r="AG151" s="2">
         <v>20</v>
       </c>
-      <c r="AH151" s="29"/>
+      <c r="AH151" s="34"/>
       <c r="AI151" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="2:35">
+    <row r="152" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="J152" s="3"/>
       <c r="AE152" s="5">
@@ -7363,14 +7582,14 @@
       <c r="AG152" s="2">
         <v>80</v>
       </c>
-      <c r="AH152" s="29" t="s">
+      <c r="AH152" s="34" t="s">
         <v>255</v>
       </c>
       <c r="AI152" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="2:35">
+    <row r="153" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="J153" s="3"/>
       <c r="AE153" s="5">
@@ -7382,12 +7601,12 @@
       <c r="AG153" s="2">
         <v>64</v>
       </c>
-      <c r="AH153" s="29"/>
+      <c r="AH153" s="34"/>
       <c r="AI153" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="2:35">
+    <row r="154" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="J154" s="3"/>
       <c r="AE154" s="5">
@@ -7399,12 +7618,12 @@
       <c r="AG154" s="2">
         <v>5</v>
       </c>
-      <c r="AH154" s="29"/>
+      <c r="AH154" s="34"/>
       <c r="AI154" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="155" spans="2:35">
+    <row r="155" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="J155" s="3"/>
       <c r="AE155" s="5">
@@ -7416,12 +7635,12 @@
       <c r="AG155" s="2">
         <v>0</v>
       </c>
-      <c r="AH155" s="29"/>
+      <c r="AH155" s="34"/>
       <c r="AI155" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="2:35">
+    <row r="156" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="J156" s="3"/>
       <c r="AE156" s="5">
@@ -7433,12 +7652,12 @@
       <c r="AG156" s="2">
         <v>64</v>
       </c>
-      <c r="AH156" s="29"/>
+      <c r="AH156" s="34"/>
       <c r="AI156" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="2:35">
+    <row r="157" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="J157" s="3"/>
       <c r="AE157" s="5">
@@ -7450,12 +7669,12 @@
       <c r="AG157" s="2">
         <v>60</v>
       </c>
-      <c r="AH157" s="29"/>
+      <c r="AH157" s="34"/>
       <c r="AI157" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="158" spans="2:35">
+    <row r="158" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="J158" s="3"/>
       <c r="AE158" s="5">
@@ -7467,12 +7686,12 @@
       <c r="AG158" s="2">
         <v>5</v>
       </c>
-      <c r="AH158" s="29"/>
+      <c r="AH158" s="34"/>
       <c r="AI158" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="159" spans="2:35">
+    <row r="159" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="J159" s="3"/>
       <c r="AE159" s="5">
@@ -7484,12 +7703,12 @@
       <c r="AG159" s="2">
         <v>0</v>
       </c>
-      <c r="AH159" s="29"/>
+      <c r="AH159" s="34"/>
       <c r="AI159" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="2:35">
+    <row r="160" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="J160" s="3"/>
       <c r="AE160" s="5">
@@ -7501,12 +7720,12 @@
       <c r="AG160" s="2">
         <v>1</v>
       </c>
-      <c r="AH160" s="29"/>
+      <c r="AH160" s="34"/>
       <c r="AI160" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="2:35">
+    <row r="161" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="J161" s="3"/>
       <c r="AE161" s="5">
@@ -7518,12 +7737,12 @@
       <c r="AG161" s="2">
         <v>20</v>
       </c>
-      <c r="AH161" s="29"/>
+      <c r="AH161" s="34"/>
       <c r="AI161" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="2:35">
+    <row r="162" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="J162" s="3"/>
       <c r="AE162" s="5">
@@ -7535,14 +7754,14 @@
       <c r="AG162" s="2">
         <v>64</v>
       </c>
-      <c r="AH162" s="29" t="s">
+      <c r="AH162" s="34" t="s">
         <v>266</v>
       </c>
       <c r="AI162" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="2:35">
+    <row r="163" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="J163" s="3"/>
       <c r="AE163" s="5">
@@ -7554,12 +7773,12 @@
       <c r="AG163" s="2">
         <v>60</v>
       </c>
-      <c r="AH163" s="29"/>
+      <c r="AH163" s="34"/>
       <c r="AI163" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="2:35">
+    <row r="164" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="J164" s="3"/>
       <c r="AE164" s="5">
@@ -7571,12 +7790,12 @@
       <c r="AG164" s="2">
         <v>5</v>
       </c>
-      <c r="AH164" s="29"/>
+      <c r="AH164" s="34"/>
       <c r="AI164" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="165" spans="2:35">
+    <row r="165" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="J165" s="3"/>
       <c r="AE165" s="5">
@@ -7588,12 +7807,12 @@
       <c r="AG165" s="2">
         <v>0</v>
       </c>
-      <c r="AH165" s="29"/>
+      <c r="AH165" s="34"/>
       <c r="AI165" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="2:35">
+    <row r="166" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="J166" s="3"/>
       <c r="AE166" s="5">
@@ -7605,12 +7824,12 @@
       <c r="AG166" s="2">
         <v>64</v>
       </c>
-      <c r="AH166" s="29"/>
+      <c r="AH166" s="34"/>
       <c r="AI166" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="2:35">
+    <row r="167" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="J167" s="3"/>
       <c r="AE167" s="5">
@@ -7622,12 +7841,12 @@
       <c r="AG167" s="2">
         <v>60</v>
       </c>
-      <c r="AH167" s="29"/>
+      <c r="AH167" s="34"/>
       <c r="AI167" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="2:35">
+    <row r="168" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="J168" s="3"/>
       <c r="AE168" s="5">
@@ -7639,12 +7858,12 @@
       <c r="AG168" s="2">
         <v>5</v>
       </c>
-      <c r="AH168" s="29"/>
+      <c r="AH168" s="34"/>
       <c r="AI168" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="2:35">
+    <row r="169" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="J169" s="3"/>
       <c r="AE169" s="5">
@@ -7656,12 +7875,12 @@
       <c r="AG169" s="2">
         <v>0</v>
       </c>
-      <c r="AH169" s="29"/>
+      <c r="AH169" s="34"/>
       <c r="AI169" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="2:35">
+    <row r="170" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="J170" s="3"/>
       <c r="AE170" s="5">
@@ -7673,12 +7892,12 @@
       <c r="AG170" s="2">
         <v>1</v>
       </c>
-      <c r="AH170" s="29"/>
+      <c r="AH170" s="34"/>
       <c r="AI170" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="171" spans="2:35">
+    <row r="171" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="J171" s="3"/>
       <c r="AE171" s="5">
@@ -7690,12 +7909,12 @@
       <c r="AG171" s="2">
         <v>20</v>
       </c>
-      <c r="AH171" s="29"/>
+      <c r="AH171" s="34"/>
       <c r="AI171" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="2:35">
+    <row r="172" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="J172" s="3"/>
       <c r="AE172" s="5">
@@ -7707,14 +7926,14 @@
       <c r="AG172" s="2">
         <v>64</v>
       </c>
-      <c r="AH172" s="29" t="s">
+      <c r="AH172" s="34" t="s">
         <v>277</v>
       </c>
       <c r="AI172" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="2:35">
+    <row r="173" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="J173" s="3"/>
       <c r="AE173" s="5">
@@ -7726,12 +7945,12 @@
       <c r="AG173" s="2">
         <v>60</v>
       </c>
-      <c r="AH173" s="29"/>
+      <c r="AH173" s="34"/>
       <c r="AI173" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="174" spans="2:35">
+    <row r="174" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="J174" s="3"/>
       <c r="AE174" s="5">
@@ -7743,12 +7962,12 @@
       <c r="AG174" s="2">
         <v>5</v>
       </c>
-      <c r="AH174" s="29"/>
+      <c r="AH174" s="34"/>
       <c r="AI174" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="175" spans="2:35">
+    <row r="175" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="J175" s="3"/>
       <c r="AE175" s="5">
@@ -7760,12 +7979,12 @@
       <c r="AG175" s="2">
         <v>0</v>
       </c>
-      <c r="AH175" s="29"/>
+      <c r="AH175" s="34"/>
       <c r="AI175" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="2:35">
+    <row r="176" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="J176" s="3"/>
       <c r="AE176" s="5">
@@ -7777,12 +7996,12 @@
       <c r="AG176" s="2">
         <v>64</v>
       </c>
-      <c r="AH176" s="29"/>
+      <c r="AH176" s="34"/>
       <c r="AI176" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="2:35">
+    <row r="177" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="J177" s="3"/>
       <c r="AE177" s="5">
@@ -7794,12 +8013,12 @@
       <c r="AG177" s="2">
         <v>60</v>
       </c>
-      <c r="AH177" s="29"/>
+      <c r="AH177" s="34"/>
       <c r="AI177" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="2:35">
+    <row r="178" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="J178" s="3"/>
       <c r="AE178" s="5">
@@ -7811,12 +8030,12 @@
       <c r="AG178" s="2">
         <v>5</v>
       </c>
-      <c r="AH178" s="29"/>
+      <c r="AH178" s="34"/>
       <c r="AI178" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="179" spans="2:35">
+    <row r="179" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="J179" s="3"/>
       <c r="AE179" s="5">
@@ -7828,12 +8047,12 @@
       <c r="AG179" s="2">
         <v>0</v>
       </c>
-      <c r="AH179" s="29"/>
+      <c r="AH179" s="34"/>
       <c r="AI179" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="2:35">
+    <row r="180" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="J180" s="3"/>
       <c r="AE180" s="5">
@@ -7845,12 +8064,12 @@
       <c r="AG180" s="2">
         <v>1</v>
       </c>
-      <c r="AH180" s="29"/>
+      <c r="AH180" s="34"/>
       <c r="AI180" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="2:35">
+    <row r="181" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="J181" s="3"/>
       <c r="AE181" s="5">
@@ -7862,12 +8081,12 @@
       <c r="AG181" s="2">
         <v>20</v>
       </c>
-      <c r="AH181" s="29"/>
+      <c r="AH181" s="34"/>
       <c r="AI181" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="182" spans="2:35">
+    <row r="182" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="J182" s="3"/>
       <c r="AE182" s="5">
@@ -7879,14 +8098,14 @@
       <c r="AG182" s="2">
         <v>0</v>
       </c>
-      <c r="AH182" s="29" t="s">
+      <c r="AH182" s="34" t="s">
         <v>288</v>
       </c>
       <c r="AI182" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="2:35">
+    <row r="183" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="J183" s="3"/>
       <c r="AE183" s="5">
@@ -7898,12 +8117,12 @@
       <c r="AG183" s="2">
         <v>22</v>
       </c>
-      <c r="AH183" s="29"/>
+      <c r="AH183" s="34"/>
       <c r="AI183" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="184" spans="2:35">
+    <row r="184" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="J184" s="3"/>
       <c r="AE184" s="5">
@@ -7915,12 +8134,12 @@
       <c r="AG184" s="2">
         <v>22</v>
       </c>
-      <c r="AH184" s="29"/>
+      <c r="AH184" s="34"/>
       <c r="AI184" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="2:35">
+    <row r="185" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="J185" s="3"/>
       <c r="AE185" s="5">
@@ -7932,12 +8151,12 @@
       <c r="AG185" s="2">
         <v>69</v>
       </c>
-      <c r="AH185" s="29"/>
+      <c r="AH185" s="34"/>
       <c r="AI185" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="2:35">
+    <row r="186" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="J186" s="3"/>
       <c r="AE186" s="5">
@@ -7949,12 +8168,12 @@
       <c r="AG186" s="2">
         <v>69</v>
       </c>
-      <c r="AH186" s="29"/>
+      <c r="AH186" s="34"/>
       <c r="AI186" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="187" spans="2:35">
+    <row r="187" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="J187" s="3"/>
       <c r="AE187" s="5">
@@ -7966,12 +8185,12 @@
       <c r="AG187" s="2">
         <v>40</v>
       </c>
-      <c r="AH187" s="29"/>
+      <c r="AH187" s="34"/>
       <c r="AI187" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="2:35">
+    <row r="188" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="J188" s="3"/>
       <c r="AE188" s="5">
@@ -7983,12 +8202,12 @@
       <c r="AG188" s="2">
         <v>28</v>
       </c>
-      <c r="AH188" s="29"/>
+      <c r="AH188" s="34"/>
       <c r="AI188" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="2:35">
+    <row r="189" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="J189" s="3"/>
       <c r="AE189" s="5">
@@ -8000,12 +8219,12 @@
       <c r="AG189" s="2">
         <v>12</v>
       </c>
-      <c r="AH189" s="29"/>
+      <c r="AH189" s="34"/>
       <c r="AI189" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="2:35">
+    <row r="190" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="J190" s="3"/>
       <c r="AE190" s="5">
@@ -8017,12 +8236,12 @@
       <c r="AG190" s="2">
         <v>45</v>
       </c>
-      <c r="AH190" s="29"/>
+      <c r="AH190" s="34"/>
       <c r="AI190" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="2:35">
+    <row r="191" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="J191" s="3"/>
       <c r="AE191" s="5">
@@ -8034,12 +8253,12 @@
       <c r="AG191" s="2">
         <v>12</v>
       </c>
-      <c r="AH191" s="29"/>
+      <c r="AH191" s="34"/>
       <c r="AI191" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="2:35">
+    <row r="192" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="J192" s="3"/>
       <c r="AE192" s="5">
@@ -8051,12 +8270,12 @@
       <c r="AG192" s="2">
         <v>8</v>
       </c>
-      <c r="AH192" s="29"/>
+      <c r="AH192" s="34"/>
       <c r="AI192" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="2:35">
+    <row r="193" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="J193" s="3"/>
       <c r="AE193" s="5">
@@ -8068,12 +8287,12 @@
       <c r="AG193" s="2">
         <v>0</v>
       </c>
-      <c r="AH193" s="29"/>
+      <c r="AH193" s="34"/>
       <c r="AI193" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="194" spans="2:35">
+    <row r="194" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="J194" s="3"/>
       <c r="AE194" s="5">
@@ -8085,12 +8304,12 @@
       <c r="AG194" s="2">
         <v>0</v>
       </c>
-      <c r="AH194" s="29"/>
+      <c r="AH194" s="34"/>
       <c r="AI194" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="195" spans="2:35">
+    <row r="195" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="J195" s="3"/>
       <c r="AE195" s="5">
@@ -8102,12 +8321,12 @@
       <c r="AG195" s="2">
         <v>0</v>
       </c>
-      <c r="AH195" s="29"/>
+      <c r="AH195" s="34"/>
       <c r="AI195" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="2:35">
+    <row r="196" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="J196" s="3"/>
       <c r="AE196" s="5">
@@ -8119,12 +8338,12 @@
       <c r="AG196" s="2">
         <v>0</v>
       </c>
-      <c r="AH196" s="29"/>
+      <c r="AH196" s="34"/>
       <c r="AI196" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="2:35">
+    <row r="197" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="J197" s="3"/>
       <c r="AE197" s="5">
@@ -8136,12 +8355,12 @@
       <c r="AG197" s="2">
         <v>0</v>
       </c>
-      <c r="AH197" s="29"/>
+      <c r="AH197" s="34"/>
       <c r="AI197" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="198" spans="2:35">
+    <row r="198" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="J198" s="3"/>
       <c r="AE198" s="5">
@@ -8153,12 +8372,12 @@
       <c r="AG198" s="2">
         <v>0</v>
       </c>
-      <c r="AH198" s="29"/>
+      <c r="AH198" s="34"/>
       <c r="AI198" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="2:35">
+    <row r="199" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="J199" s="3"/>
       <c r="AE199" s="5">
@@ -8170,12 +8389,12 @@
       <c r="AG199" s="2">
         <v>0</v>
       </c>
-      <c r="AH199" s="29"/>
+      <c r="AH199" s="34"/>
       <c r="AI199" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="2:35">
+    <row r="200" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="J200" s="3"/>
       <c r="AE200" s="5">
@@ -8187,12 +8406,12 @@
       <c r="AG200" s="2">
         <v>0</v>
       </c>
-      <c r="AH200" s="29"/>
+      <c r="AH200" s="34"/>
       <c r="AI200" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="201" spans="2:35">
+    <row r="201" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="J201" s="3"/>
       <c r="AE201" s="5">
@@ -8204,12 +8423,12 @@
       <c r="AG201" s="2">
         <v>0</v>
       </c>
-      <c r="AH201" s="29"/>
+      <c r="AH201" s="34"/>
       <c r="AI201" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="202" spans="2:35">
+    <row r="202" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="J202" s="3"/>
       <c r="AE202" s="5">
@@ -8221,12 +8440,12 @@
       <c r="AG202" s="2">
         <v>0</v>
       </c>
-      <c r="AH202" s="29"/>
+      <c r="AH202" s="34"/>
       <c r="AI202" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="203" spans="2:35">
+    <row r="203" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="J203" s="3"/>
       <c r="AE203" s="5">
@@ -8238,12 +8457,12 @@
       <c r="AG203" s="2">
         <v>0</v>
       </c>
-      <c r="AH203" s="29"/>
+      <c r="AH203" s="34"/>
       <c r="AI203" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="204" spans="2:35">
+    <row r="204" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="J204" s="3"/>
       <c r="AE204" s="5">
@@ -8255,12 +8474,12 @@
       <c r="AG204" s="2">
         <v>0</v>
       </c>
-      <c r="AH204" s="29"/>
+      <c r="AH204" s="34"/>
       <c r="AI204" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="205" spans="2:35">
+    <row r="205" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="J205" s="3"/>
       <c r="AE205" s="5">
@@ -8272,12 +8491,12 @@
       <c r="AG205" s="2">
         <v>0</v>
       </c>
-      <c r="AH205" s="29"/>
+      <c r="AH205" s="34"/>
       <c r="AI205" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="2:35">
+    <row r="206" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="J206" s="3"/>
       <c r="AE206" s="5">
@@ -8289,12 +8508,12 @@
       <c r="AG206" s="2">
         <v>0</v>
       </c>
-      <c r="AH206" s="29"/>
+      <c r="AH206" s="34"/>
       <c r="AI206" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="207" spans="2:35">
+    <row r="207" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="J207" s="3"/>
       <c r="AE207" s="5">
@@ -8306,12 +8525,12 @@
       <c r="AG207" s="2">
         <v>0</v>
       </c>
-      <c r="AH207" s="29"/>
+      <c r="AH207" s="34"/>
       <c r="AI207" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="208" spans="2:35">
+    <row r="208" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="J208" s="3"/>
       <c r="AE208" s="5">
@@ -8323,12 +8542,12 @@
       <c r="AG208" s="2">
         <v>0</v>
       </c>
-      <c r="AH208" s="29"/>
+      <c r="AH208" s="34"/>
       <c r="AI208" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="209" spans="2:35">
+    <row r="209" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="J209" s="3"/>
       <c r="AE209" s="5">
@@ -8340,12 +8559,12 @@
       <c r="AG209" s="2">
         <v>0</v>
       </c>
-      <c r="AH209" s="29"/>
+      <c r="AH209" s="34"/>
       <c r="AI209" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="210" spans="2:35">
+    <row r="210" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="J210" s="3"/>
       <c r="AE210" s="5">
@@ -8357,12 +8576,12 @@
       <c r="AG210" s="2">
         <v>0</v>
       </c>
-      <c r="AH210" s="29"/>
+      <c r="AH210" s="34"/>
       <c r="AI210" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="2:35">
+    <row r="211" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="J211" s="3"/>
       <c r="AE211" s="5">
@@ -8374,12 +8593,12 @@
       <c r="AG211" s="2">
         <v>0</v>
       </c>
-      <c r="AH211" s="29"/>
+      <c r="AH211" s="34"/>
       <c r="AI211" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="212" spans="2:35">
+    <row r="212" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="J212" s="3"/>
       <c r="AE212" s="5">
@@ -8391,12 +8610,12 @@
       <c r="AG212" s="2">
         <v>0</v>
       </c>
-      <c r="AH212" s="29"/>
+      <c r="AH212" s="34"/>
       <c r="AI212" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="213" spans="2:35">
+    <row r="213" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="J213" s="3"/>
       <c r="AE213" s="5">
@@ -8408,63 +8627,78 @@
       <c r="AG213" s="2">
         <v>0</v>
       </c>
-      <c r="AH213" s="29"/>
+      <c r="AH213" s="34"/>
       <c r="AI213" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="214" spans="2:35">
+    <row r="214" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="J214" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="L8:AA8"/>
-    <mergeCell ref="L9:AA9"/>
-    <mergeCell ref="AH9:AH13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="L10:AA10"/>
-    <mergeCell ref="L11:AA11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="L12:AA12"/>
-    <mergeCell ref="L13:AA13"/>
-    <mergeCell ref="AH4:AH8"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="L6:AA6"/>
-    <mergeCell ref="L7:AA7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="L14:AA14"/>
-    <mergeCell ref="AH14:AH18"/>
-    <mergeCell ref="L15:AA15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="L17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="L18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="AH19:AH23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="L34:AA34"/>
-    <mergeCell ref="AH34:AH38"/>
-    <mergeCell ref="L35:AA35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="L36:T36"/>
-    <mergeCell ref="U36:AA36"/>
-    <mergeCell ref="L37:T37"/>
-    <mergeCell ref="U37:AA37"/>
+    <mergeCell ref="B92:B116"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="AH162:AH171"/>
+    <mergeCell ref="AH172:AH181"/>
+    <mergeCell ref="AH182:AH213"/>
+    <mergeCell ref="AH137:AH138"/>
+    <mergeCell ref="AH139:AH140"/>
+    <mergeCell ref="AH142:AH151"/>
+    <mergeCell ref="AH152:AH161"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="AH129:AH132"/>
+    <mergeCell ref="AH133:AH136"/>
+    <mergeCell ref="AH99:AH103"/>
+    <mergeCell ref="AH104:AH108"/>
+    <mergeCell ref="AH109:AH113"/>
+    <mergeCell ref="AH114:AH118"/>
+    <mergeCell ref="AH119:AH123"/>
+    <mergeCell ref="AH124:AH128"/>
+    <mergeCell ref="AH65:AH69"/>
+    <mergeCell ref="AH70:AH74"/>
+    <mergeCell ref="AH75:AH79"/>
+    <mergeCell ref="AH80:AH84"/>
+    <mergeCell ref="AH85:AH92"/>
+    <mergeCell ref="AH93:AH98"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="AH44:AH48"/>
+    <mergeCell ref="AH49:AH53"/>
+    <mergeCell ref="AH54:AH59"/>
+    <mergeCell ref="AH60:AH64"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="L39:T39"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="AH39:AH43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
     <mergeCell ref="B4:B23"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="L4:S4"/>
@@ -8489,67 +8723,52 @@
     <mergeCell ref="T25:AA25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="L26:AA26"/>
-    <mergeCell ref="AH44:AH48"/>
-    <mergeCell ref="AH49:AH53"/>
-    <mergeCell ref="AH54:AH59"/>
-    <mergeCell ref="AH60:AH64"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AA38"/>
-    <mergeCell ref="L39:T39"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="AH39:AH43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="AH129:AH132"/>
-    <mergeCell ref="AH133:AH136"/>
-    <mergeCell ref="AH99:AH103"/>
-    <mergeCell ref="AH104:AH108"/>
-    <mergeCell ref="AH109:AH113"/>
-    <mergeCell ref="AH114:AH118"/>
-    <mergeCell ref="AH119:AH123"/>
-    <mergeCell ref="AH124:AH128"/>
-    <mergeCell ref="AH65:AH69"/>
-    <mergeCell ref="AH70:AH74"/>
-    <mergeCell ref="AH75:AH79"/>
-    <mergeCell ref="AH80:AH84"/>
-    <mergeCell ref="AH85:AH92"/>
-    <mergeCell ref="AH93:AH98"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="AH162:AH171"/>
-    <mergeCell ref="AH172:AH181"/>
-    <mergeCell ref="AH182:AH213"/>
-    <mergeCell ref="AH137:AH138"/>
-    <mergeCell ref="AH139:AH140"/>
-    <mergeCell ref="AH142:AH151"/>
-    <mergeCell ref="AH152:AH161"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B92:B116"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="L34:AA34"/>
+    <mergeCell ref="AH34:AH38"/>
+    <mergeCell ref="L35:AA35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="L36:T36"/>
+    <mergeCell ref="U36:AA36"/>
+    <mergeCell ref="L37:T37"/>
+    <mergeCell ref="U37:AA37"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="L14:AA14"/>
+    <mergeCell ref="AH14:AH18"/>
+    <mergeCell ref="L15:AA15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="L18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="AH19:AH23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="L8:AA8"/>
+    <mergeCell ref="L9:AA9"/>
+    <mergeCell ref="AH9:AH13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="L10:AA10"/>
+    <mergeCell ref="L11:AA11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="L12:AA12"/>
+    <mergeCell ref="L13:AA13"/>
+    <mergeCell ref="AH4:AH8"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="L6:AA6"/>
+    <mergeCell ref="L7:AA7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8558,46 +8777,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B4:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K162" sqref="K162"/>
+    <sheetView topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="29.25" customWidth="1"/>
-    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="F4" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="D5" s="20">
         <v>1</v>
@@ -8612,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <v>2</v>
       </c>
@@ -8628,12 +8847,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
         <v>3</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="D7" s="20">
         <v>3</v>
@@ -8648,7 +8867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <v>4</v>
       </c>
@@ -8664,12 +8883,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <v>5</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="D9" s="20">
         <v>3</v>
@@ -8684,7 +8903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
         <v>6</v>
       </c>
@@ -8700,12 +8919,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
         <v>7</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="D11" s="20">
         <v>8</v>
@@ -8720,7 +8939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <v>8</v>
       </c>
@@ -8736,12 +8955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>9</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="D13" s="20">
         <v>8</v>
@@ -8756,7 +8975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <v>10</v>
       </c>
@@ -8772,12 +8991,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <v>11</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
@@ -8793,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>12</v>
       </c>
@@ -8809,12 +9028,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>13</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>379</v>
+        <v>461</v>
       </c>
       <c r="D17" s="20">
         <v>32</v>
@@ -8829,7 +9048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>14</v>
       </c>
@@ -8845,12 +9064,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>15</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="D19" s="20">
         <v>32</v>
@@ -8865,7 +9084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>16</v>
       </c>
@@ -8881,12 +9100,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>17</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="D21" s="20">
         <v>16</v>
@@ -8901,7 +9120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>18</v>
       </c>
@@ -8917,12 +9136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>19</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="D23" s="20">
         <v>16</v>
@@ -8937,7 +9156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>20</v>
       </c>
@@ -8953,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <v>21</v>
       </c>
@@ -8973,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>22</v>
       </c>
@@ -8989,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>23</v>
       </c>
@@ -9009,7 +9228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>24</v>
       </c>
@@ -9025,7 +9244,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>25</v>
       </c>
@@ -9045,7 +9264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="20">
         <v>26</v>
       </c>
@@ -9061,7 +9280,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="20">
         <v>27</v>
       </c>
@@ -9081,7 +9300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>28</v>
       </c>
@@ -9097,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="20">
         <v>29</v>
       </c>
@@ -9117,7 +9336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
         <v>30</v>
       </c>
@@ -9133,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
         <v>31</v>
       </c>
@@ -9153,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="20">
         <v>32</v>
       </c>
@@ -9169,7 +9388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="20">
         <v>33</v>
       </c>
@@ -9189,7 +9408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="20">
         <v>34</v>
       </c>
@@ -9205,7 +9424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="20">
         <v>35</v>
       </c>
@@ -9225,7 +9444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="20">
         <v>36</v>
       </c>
@@ -9241,7 +9460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="20">
         <v>37</v>
       </c>
@@ -9261,7 +9480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="20">
         <v>38</v>
       </c>
@@ -9277,7 +9496,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="20">
         <v>39</v>
       </c>
@@ -9297,7 +9516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="20">
         <v>40</v>
       </c>
@@ -9313,12 +9532,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="20">
         <v>41</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>90</v>
+        <v>465</v>
       </c>
       <c r="D45" s="20">
         <v>3</v>
@@ -9333,12 +9552,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="20">
         <v>42</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>93</v>
+        <v>466</v>
       </c>
       <c r="D46" s="20">
         <v>3</v>
@@ -9353,12 +9572,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="20">
         <v>43</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>95</v>
+        <v>467</v>
       </c>
       <c r="D47" s="20">
         <v>3</v>
@@ -9373,12 +9592,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="20">
         <v>44</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>97</v>
+        <v>468</v>
       </c>
       <c r="D48" s="20">
         <v>3</v>
@@ -9393,7 +9612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="20">
         <v>45</v>
       </c>
@@ -9413,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="20">
         <v>46</v>
       </c>
@@ -9433,12 +9652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="20">
         <v>47</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="D51" s="20">
         <v>1</v>
@@ -9453,12 +9672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="20">
         <v>48</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="D52" s="20">
         <v>0</v>
@@ -9473,12 +9692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="20">
         <v>49</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>104</v>
+        <v>449</v>
       </c>
       <c r="D53" s="22">
         <v>12</v>
@@ -9487,18 +9706,18 @@
         <v>49</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G53" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="20">
         <v>50</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="D54" s="22">
         <v>0</v>
@@ -9513,12 +9732,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="20">
         <v>51</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>108</v>
+        <v>470</v>
       </c>
       <c r="D55" s="22">
         <v>0</v>
@@ -9533,12 +9752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="20">
         <v>52</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>111</v>
+        <v>471</v>
       </c>
       <c r="D56" s="22">
         <v>1</v>
@@ -9553,12 +9772,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="20">
         <v>53</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="D57" s="22">
         <v>0</v>
@@ -9573,12 +9792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="20">
         <v>54</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="D58" s="22">
         <v>24</v>
@@ -9587,18 +9806,18 @@
         <v>54</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G58" s="20">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="20">
         <v>55</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>115</v>
+        <v>474</v>
       </c>
       <c r="D59" s="22">
         <v>22</v>
@@ -9613,7 +9832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="20">
         <v>56</v>
       </c>
@@ -9627,13 +9846,13 @@
         <v>56</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G60" s="20">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="20">
         <v>57</v>
       </c>
@@ -9647,13 +9866,13 @@
         <v>57</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G61" s="20">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="20">
         <v>58</v>
       </c>
@@ -9667,13 +9886,13 @@
         <v>58</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G62" s="20">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="20">
         <v>59</v>
       </c>
@@ -9687,13 +9906,13 @@
         <v>59</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G63" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="20">
         <v>60</v>
       </c>
@@ -9707,13 +9926,13 @@
         <v>60</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G64" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="20">
         <v>61</v>
       </c>
@@ -9727,13 +9946,13 @@
         <v>61</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G65" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="20">
         <v>62</v>
       </c>
@@ -9747,18 +9966,18 @@
         <v>62</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G66" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="20">
         <v>63</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>133</v>
+        <v>475</v>
       </c>
       <c r="D67" s="22">
         <v>0</v>
@@ -9773,11 +9992,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="20">
         <v>64</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="41" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="22">
@@ -9786,34 +10005,34 @@
       <c r="E68" s="20">
         <v>64</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="41" t="s">
         <v>135</v>
       </c>
       <c r="G68" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="20">
         <v>65</v>
       </c>
-      <c r="C69" s="28"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="22">
         <v>0</v>
       </c>
       <c r="E69" s="20">
         <v>65</v>
       </c>
-      <c r="F69" s="28"/>
+      <c r="F69" s="42"/>
       <c r="G69" s="22">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="20">
         <v>66</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="42" t="s">
         <v>137</v>
       </c>
       <c r="D70" s="22">
@@ -9822,35 +10041,35 @@
       <c r="E70" s="20">
         <v>66</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="42" t="s">
         <v>137</v>
       </c>
       <c r="G70" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="20">
         <v>67</v>
       </c>
-      <c r="C71" s="28"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="22">
         <v>0</v>
       </c>
       <c r="E71" s="20">
         <v>67</v>
       </c>
-      <c r="F71" s="28"/>
+      <c r="F71" s="42"/>
       <c r="G71" s="22">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="20">
         <v>68</v>
       </c>
-      <c r="C72" s="27" t="s">
-        <v>139</v>
+      <c r="C72" s="41" t="s">
+        <v>476</v>
       </c>
       <c r="D72" s="22">
         <v>0</v>
@@ -9858,35 +10077,35 @@
       <c r="E72" s="20">
         <v>68</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="41" t="s">
         <v>139</v>
       </c>
       <c r="G72" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="20">
         <v>69</v>
       </c>
-      <c r="C73" s="28"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="22">
         <v>0</v>
       </c>
       <c r="E73" s="20">
         <v>69</v>
       </c>
-      <c r="F73" s="28"/>
+      <c r="F73" s="42"/>
       <c r="G73" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="20">
         <v>70</v>
       </c>
-      <c r="C74" s="27" t="s">
-        <v>141</v>
+      <c r="C74" s="41" t="s">
+        <v>477</v>
       </c>
       <c r="D74" s="22">
         <v>0</v>
@@ -9894,35 +10113,35 @@
       <c r="E74" s="20">
         <v>70</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="41" t="s">
         <v>141</v>
       </c>
       <c r="G74" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="20">
         <v>71</v>
       </c>
-      <c r="C75" s="28"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="22">
         <v>0</v>
       </c>
       <c r="E75" s="20">
         <v>71</v>
       </c>
-      <c r="F75" s="28"/>
+      <c r="F75" s="42"/>
       <c r="G75" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="20">
         <v>72</v>
       </c>
-      <c r="C76" s="28" t="s">
-        <v>144</v>
+      <c r="C76" s="42" t="s">
+        <v>478</v>
       </c>
       <c r="D76" s="22">
         <v>0</v>
@@ -9930,34 +10149,34 @@
       <c r="E76" s="20">
         <v>72</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="42" t="s">
         <v>144</v>
       </c>
       <c r="G76" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="20">
         <v>73</v>
       </c>
-      <c r="C77" s="28"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="22">
         <v>0</v>
       </c>
       <c r="E77" s="20">
         <v>73</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="42"/>
       <c r="G77" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="20">
         <v>74</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="41" t="s">
         <v>146</v>
       </c>
       <c r="D78" s="22">
@@ -9966,34 +10185,34 @@
       <c r="E78" s="20">
         <v>74</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="41" t="s">
         <v>146</v>
       </c>
       <c r="G78" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="20">
         <v>75</v>
       </c>
-      <c r="C79" s="28"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="22">
         <v>150</v>
       </c>
       <c r="E79" s="20">
         <v>75</v>
       </c>
-      <c r="F79" s="28"/>
+      <c r="F79" s="42"/>
       <c r="G79" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="20">
         <v>76</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="42" t="s">
         <v>148</v>
       </c>
       <c r="D80" s="22">
@@ -10002,35 +10221,35 @@
       <c r="E80" s="20">
         <v>76</v>
       </c>
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="42" t="s">
         <v>148</v>
       </c>
       <c r="G80" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="20">
         <v>77</v>
       </c>
-      <c r="C81" s="28"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="22">
         <v>0</v>
       </c>
       <c r="E81" s="20">
         <v>77</v>
       </c>
-      <c r="F81" s="28"/>
+      <c r="F81" s="42"/>
       <c r="G81" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="20">
         <v>78</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="D82" s="20">
         <v>0</v>
@@ -10038,14 +10257,14 @@
       <c r="E82" s="20">
         <v>78</v>
       </c>
-      <c r="F82" s="28" t="s">
-        <v>440</v>
+      <c r="F82" s="42" t="s">
+        <v>432</v>
       </c>
       <c r="G82" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="20">
         <v>79</v>
       </c>
@@ -10056,17 +10275,17 @@
       <c r="E83" s="20">
         <v>79</v>
       </c>
-      <c r="F83" s="28"/>
+      <c r="F83" s="42"/>
       <c r="G83" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="20">
         <v>80</v>
       </c>
-      <c r="C84" s="27" t="s">
-        <v>151</v>
+      <c r="C84" s="41" t="s">
+        <v>479</v>
       </c>
       <c r="D84" s="22">
         <v>0</v>
@@ -10074,35 +10293,35 @@
       <c r="E84" s="20">
         <v>80</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="41" t="s">
         <v>151</v>
       </c>
       <c r="G84" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="20">
         <v>81</v>
       </c>
-      <c r="C85" s="28"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="22">
         <v>0</v>
       </c>
       <c r="E85" s="20">
         <v>81</v>
       </c>
-      <c r="F85" s="28"/>
+      <c r="F85" s="42"/>
       <c r="G85" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="20">
         <v>82</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>154</v>
+      <c r="C86" s="41" t="s">
+        <v>480</v>
       </c>
       <c r="D86" s="22">
         <v>0</v>
@@ -10110,35 +10329,35 @@
       <c r="E86" s="20">
         <v>82</v>
       </c>
-      <c r="F86" s="43" t="s">
-        <v>441</v>
+      <c r="F86" s="45" t="s">
+        <v>433</v>
       </c>
       <c r="G86" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="20">
         <v>83</v>
       </c>
-      <c r="C87" s="28"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="22">
         <v>0</v>
       </c>
       <c r="E87" s="20">
         <v>83</v>
       </c>
-      <c r="F87" s="44"/>
+      <c r="F87" s="46"/>
       <c r="G87" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="20">
         <v>84</v>
       </c>
-      <c r="C88" s="27" t="s">
-        <v>156</v>
+      <c r="C88" s="41" t="s">
+        <v>481</v>
       </c>
       <c r="D88" s="22">
         <v>0</v>
@@ -10146,69 +10365,69 @@
       <c r="E88" s="20">
         <v>84</v>
       </c>
-      <c r="F88" s="43" t="s">
-        <v>442</v>
+      <c r="F88" s="45" t="s">
+        <v>434</v>
       </c>
       <c r="G88" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="20">
         <v>85</v>
       </c>
-      <c r="C89" s="28"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="22">
         <v>0</v>
       </c>
       <c r="E89" s="20">
         <v>85</v>
       </c>
-      <c r="F89" s="44"/>
+      <c r="F89" s="46"/>
       <c r="G89" s="20">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="20">
         <v>86</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="20">
         <v>86</v>
       </c>
-      <c r="F90" s="45" t="s">
-        <v>443</v>
+      <c r="F90" s="43" t="s">
+        <v>435</v>
       </c>
       <c r="G90" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="20">
         <v>87</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="20">
         <v>87</v>
       </c>
-      <c r="F91" s="46"/>
+      <c r="F91" s="44"/>
       <c r="G91" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="20">
         <v>88</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="D92" s="20">
         <v>0</v>
@@ -10216,19 +10435,19 @@
       <c r="E92" s="20">
         <v>88</v>
       </c>
-      <c r="F92" s="45" t="s">
-        <v>444</v>
+      <c r="F92" s="43" t="s">
+        <v>436</v>
       </c>
       <c r="G92" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="20">
         <v>89</v>
       </c>
-      <c r="C93" s="27" t="s">
-        <v>392</v>
+      <c r="C93" s="41" t="s">
+        <v>390</v>
       </c>
       <c r="D93" s="22">
         <v>0</v>
@@ -10236,35 +10455,35 @@
       <c r="E93" s="20">
         <v>89</v>
       </c>
-      <c r="F93" s="46"/>
+      <c r="F93" s="44"/>
       <c r="G93" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="20">
         <v>90</v>
       </c>
-      <c r="C94" s="28"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="22">
         <v>0</v>
       </c>
       <c r="E94" s="20">
         <v>90</v>
       </c>
-      <c r="F94" s="43" t="s">
+      <c r="F94" s="45" t="s">
         <v>7</v>
       </c>
       <c r="G94" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="20">
         <v>91</v>
       </c>
-      <c r="C95" s="28" t="s">
-        <v>393</v>
+      <c r="C95" s="42" t="s">
+        <v>391</v>
       </c>
       <c r="D95" s="22">
         <v>0</v>
@@ -10272,35 +10491,35 @@
       <c r="E95" s="20">
         <v>91</v>
       </c>
-      <c r="F95" s="44"/>
+      <c r="F95" s="46"/>
       <c r="G95" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="20">
         <v>92</v>
       </c>
-      <c r="C96" s="28"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="22">
         <v>0</v>
       </c>
       <c r="E96" s="20">
         <v>92</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="45">
         <v>20</v>
       </c>
       <c r="G96" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="20">
         <v>93</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="D97" s="22">
         <v>0</v>
@@ -10308,17 +10527,17 @@
       <c r="E97" s="20">
         <v>93</v>
       </c>
-      <c r="F97" s="44"/>
+      <c r="F97" s="46"/>
       <c r="G97" s="20">
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="20">
         <v>94</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>7</v>
+        <v>453</v>
       </c>
       <c r="D98" s="20">
         <v>2</v>
@@ -10326,14 +10545,14 @@
       <c r="E98" s="20">
         <v>94</v>
       </c>
-      <c r="F98" s="43">
+      <c r="F98" s="45">
         <v>21</v>
       </c>
       <c r="G98" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="20">
         <v>95</v>
       </c>
@@ -10344,12 +10563,12 @@
       <c r="E99" s="20">
         <v>95</v>
       </c>
-      <c r="F99" s="44"/>
+      <c r="F99" s="46"/>
       <c r="G99" s="20">
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="20">
         <v>96</v>
       </c>
@@ -10362,14 +10581,14 @@
       <c r="E100" s="20">
         <v>96</v>
       </c>
-      <c r="F100" s="43">
+      <c r="F100" s="45">
         <v>22</v>
       </c>
       <c r="G100" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="20">
         <v>97</v>
       </c>
@@ -10380,12 +10599,12 @@
       <c r="E101" s="20">
         <v>97</v>
       </c>
-      <c r="F101" s="44"/>
+      <c r="F101" s="46"/>
       <c r="G101" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="20">
         <v>98</v>
       </c>
@@ -10398,14 +10617,14 @@
       <c r="E102" s="20">
         <v>98</v>
       </c>
-      <c r="F102" s="43">
+      <c r="F102" s="45">
         <v>23</v>
       </c>
       <c r="G102" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="20">
         <v>99</v>
       </c>
@@ -10416,12 +10635,12 @@
       <c r="E103" s="20">
         <v>99</v>
       </c>
-      <c r="F103" s="44"/>
+      <c r="F103" s="46"/>
       <c r="G103" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="20">
         <v>100</v>
       </c>
@@ -10434,14 +10653,14 @@
       <c r="E104" s="20">
         <v>100</v>
       </c>
-      <c r="F104" s="43">
+      <c r="F104" s="45">
         <v>27</v>
       </c>
       <c r="G104" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="20">
         <v>101</v>
       </c>
@@ -10452,12 +10671,12 @@
       <c r="E105" s="20">
         <v>101</v>
       </c>
-      <c r="F105" s="44"/>
+      <c r="F105" s="46"/>
       <c r="G105" s="20">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="20">
         <v>102</v>
       </c>
@@ -10470,14 +10689,14 @@
       <c r="E106" s="20">
         <v>102</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="45" t="s">
         <v>41</v>
       </c>
       <c r="G106" s="20">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="20">
         <v>103</v>
       </c>
@@ -10488,12 +10707,12 @@
       <c r="E107" s="20">
         <v>103</v>
       </c>
-      <c r="F107" s="44"/>
+      <c r="F107" s="46"/>
       <c r="G107" s="20">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="20">
         <v>104</v>
       </c>
@@ -10506,14 +10725,14 @@
       <c r="E108" s="20">
         <v>104</v>
       </c>
-      <c r="F108" s="43" t="s">
+      <c r="F108" s="45" t="s">
         <v>48</v>
       </c>
       <c r="G108" s="20">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="20">
         <v>105</v>
       </c>
@@ -10524,12 +10743,12 @@
       <c r="E109" s="20">
         <v>105</v>
       </c>
-      <c r="F109" s="44"/>
+      <c r="F109" s="46"/>
       <c r="G109" s="20">
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="20">
         <v>106</v>
       </c>
@@ -10542,14 +10761,14 @@
       <c r="E110" s="20">
         <v>106</v>
       </c>
-      <c r="F110" s="43" t="s">
+      <c r="F110" s="45" t="s">
         <v>55</v>
       </c>
       <c r="G110" s="20">
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="20">
         <v>107</v>
       </c>
@@ -10560,12 +10779,12 @@
       <c r="E111" s="20">
         <v>107</v>
       </c>
-      <c r="F111" s="44"/>
+      <c r="F111" s="46"/>
       <c r="G111" s="20">
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="20">
         <v>108</v>
       </c>
@@ -10578,14 +10797,14 @@
       <c r="E112" s="20">
         <v>108</v>
       </c>
-      <c r="F112" s="43" t="s">
+      <c r="F112" s="45" t="s">
         <v>60</v>
       </c>
       <c r="G112" s="20">
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="20">
         <v>109</v>
       </c>
@@ -10596,12 +10815,12 @@
       <c r="E113" s="20">
         <v>109</v>
       </c>
-      <c r="F113" s="44"/>
+      <c r="F113" s="46"/>
       <c r="G113" s="20">
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="20">
         <v>110</v>
       </c>
@@ -10621,7 +10840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="20">
         <v>111</v>
       </c>
@@ -10639,7 +10858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="20">
         <v>112</v>
       </c>
@@ -10653,13 +10872,13 @@
         <v>112</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G116" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="20">
         <v>113</v>
       </c>
@@ -10671,18 +10890,18 @@
         <v>113</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G117" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="20">
         <v>114</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="D118" s="20">
         <v>2</v>
@@ -10691,13 +10910,13 @@
         <v>114</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="20">
         <v>115</v>
       </c>
@@ -10711,18 +10930,18 @@
         <v>115</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G119" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="20">
         <v>116</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="D120" s="20">
         <v>8</v>
@@ -10731,18 +10950,18 @@
         <v>116</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G120" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="20">
         <v>117</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="D121" s="20">
         <v>6</v>
@@ -10751,18 +10970,18 @@
         <v>117</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G121" s="23">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="20">
         <v>118</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="D122" s="20">
         <v>255</v>
@@ -10771,18 +10990,18 @@
         <v>118</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G122" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="20">
         <v>119</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="D123" s="20">
         <v>1</v>
@@ -10791,18 +11010,18 @@
         <v>119</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G123" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="20">
         <v>120</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="D124" s="20">
         <v>0</v>
@@ -10811,18 +11030,18 @@
         <v>120</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G124" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="20">
         <v>121</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="D125" s="20">
         <v>255</v>
@@ -10831,18 +11050,18 @@
         <v>121</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G125" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="20">
         <v>122</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>408</v>
+        <v>491</v>
       </c>
       <c r="D126" s="20">
         <v>255</v>
@@ -10851,18 +11070,18 @@
         <v>122</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G126" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="20">
         <v>123</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="D127" s="20">
         <v>4</v>
@@ -10873,12 +11092,12 @@
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="20">
         <v>124</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="D128" s="20">
         <v>66</v>
@@ -10889,12 +11108,12 @@
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="20">
         <v>125</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="D129" s="20">
         <v>255</v>
@@ -10905,12 +11124,12 @@
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="20">
         <v>126</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
       <c r="D130" s="20">
         <v>255</v>
@@ -10921,12 +11140,12 @@
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="20">
         <v>127</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="D131" s="20">
         <v>255</v>
@@ -10937,12 +11156,12 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="20">
         <v>128</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="D132" s="20">
         <v>255</v>
@@ -10953,12 +11172,12 @@
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="20">
         <v>129</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="D133" s="20">
         <v>255</v>
@@ -10969,12 +11188,12 @@
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="20">
         <v>130</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="D134" s="20">
         <v>255</v>
@@ -10985,12 +11204,12 @@
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="20">
         <v>131</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D135" s="20"/>
       <c r="E135" s="20">
@@ -10999,12 +11218,12 @@
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="20">
         <v>132</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D136" s="20"/>
       <c r="E136" s="20">
@@ -11013,12 +11232,12 @@
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="20">
         <v>133</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D137" s="20"/>
       <c r="E137" s="20">
@@ -11027,12 +11246,12 @@
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="20">
         <v>134</v>
       </c>
-      <c r="C138" s="42" t="s">
-        <v>425</v>
+      <c r="C138" s="39" t="s">
+        <v>500</v>
       </c>
       <c r="D138" s="20"/>
       <c r="E138" s="20">
@@ -11041,11 +11260,11 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="20">
         <v>135</v>
       </c>
-      <c r="C139" s="42"/>
+      <c r="C139" s="39"/>
       <c r="D139" s="20"/>
       <c r="E139" s="20">
         <v>135</v>
@@ -11053,12 +11272,12 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="20">
         <v>136</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="D140" s="20">
         <v>1</v>
@@ -11069,12 +11288,12 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="20">
         <v>137</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="D141" s="20">
         <v>100</v>
@@ -11085,12 +11304,12 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="20">
         <v>138</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="D142" s="20"/>
       <c r="E142" s="20">
@@ -11099,12 +11318,12 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="20">
         <v>139</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="D143" s="20"/>
       <c r="E143" s="20">
@@ -11113,12 +11332,12 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="20">
         <v>140</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="D144" s="20"/>
       <c r="E144" s="20">
@@ -11127,7 +11346,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="20">
         <v>141</v>
       </c>
@@ -11139,7 +11358,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="20">
         <v>142</v>
       </c>
@@ -11151,7 +11370,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="20">
         <v>143</v>
       </c>
@@ -11163,7 +11382,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="20">
         <v>144</v>
       </c>
@@ -11175,7 +11394,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="20">
         <v>145</v>
       </c>
@@ -11187,7 +11406,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="20">
         <v>146</v>
       </c>
@@ -11199,7 +11418,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="20">
         <v>147</v>
       </c>
@@ -11213,20 +11432,64 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="C88:C89"/>
     <mergeCell ref="C93:C94"/>
@@ -11243,64 +11506,20 @@
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="C72:C73"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11308,7 +11527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B4:I35"/>
   <sheetViews>
@@ -11316,12 +11535,12 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>356</v>
       </c>
@@ -11347,7 +11566,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>200</v>
       </c>
@@ -11376,7 +11595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>300</v>
       </c>
@@ -11405,7 +11624,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>400</v>
       </c>
@@ -11434,7 +11653,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>500</v>
       </c>
@@ -11463,7 +11682,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>600</v>
       </c>
@@ -11492,7 +11711,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>700</v>
       </c>
@@ -11521,7 +11740,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>800</v>
       </c>
@@ -11550,7 +11769,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>900</v>
       </c>
@@ -11579,7 +11798,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>1000</v>
       </c>
@@ -11608,7 +11827,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>1100</v>
       </c>
@@ -11637,7 +11856,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>1200</v>
       </c>
@@ -11666,7 +11885,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>1300</v>
       </c>
@@ -11695,7 +11914,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>1400</v>
       </c>
@@ -11724,7 +11943,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>1500</v>
       </c>
@@ -11753,7 +11972,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1600</v>
       </c>
@@ -11782,7 +12001,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1700</v>
       </c>
@@ -11811,7 +12030,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>1800</v>
       </c>
@@ -11840,7 +12059,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>1900</v>
       </c>
@@ -11869,7 +12088,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>2000</v>
       </c>
@@ -11898,7 +12117,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>2100</v>
       </c>
@@ -11927,7 +12146,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>2200</v>
       </c>
@@ -11956,7 +12175,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>2300</v>
       </c>
@@ -11985,7 +12204,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>2400</v>
       </c>
@@ -12014,7 +12233,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>2500</v>
       </c>
@@ -12043,7 +12262,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>2600</v>
       </c>
@@ -12072,7 +12291,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>2700</v>
       </c>
@@ -12101,7 +12320,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>2800</v>
       </c>
@@ -12130,7 +12349,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>2900</v>
       </c>
@@ -12159,7 +12378,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>3000</v>
       </c>
@@ -12188,7 +12407,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>3100</v>
       </c>
@@ -12217,7 +12436,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>3200</v>
       </c>
@@ -12254,7 +12473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B4:S35"/>
   <sheetViews>
@@ -12262,12 +12481,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>356</v>
       </c>
@@ -12296,7 +12515,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>200</v>
       </c>
@@ -12340,7 +12559,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>300</v>
       </c>
@@ -12384,7 +12603,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>400</v>
       </c>
@@ -12428,7 +12647,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>500</v>
       </c>
@@ -12472,7 +12691,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>600</v>
       </c>
@@ -12516,7 +12735,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>700</v>
       </c>
@@ -12548,7 +12767,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>800</v>
       </c>
@@ -12577,7 +12796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>900</v>
       </c>
@@ -12606,7 +12825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>1000</v>
       </c>
@@ -12638,7 +12857,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>1100</v>
       </c>
@@ -12667,7 +12886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>1200</v>
       </c>
@@ -12696,7 +12915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1300</v>
       </c>
@@ -12728,7 +12947,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>1400</v>
       </c>
@@ -12787,7 +13006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>1500</v>
       </c>
@@ -12846,7 +13065,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>1600</v>
       </c>
@@ -12905,7 +13124,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>1700</v>
       </c>
@@ -12964,7 +13183,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>1800</v>
       </c>
@@ -13023,7 +13242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>1900</v>
       </c>
@@ -13055,7 +13274,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>2000</v>
       </c>
@@ -13087,7 +13306,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>2100</v>
       </c>
@@ -13119,7 +13338,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>2200</v>
       </c>
@@ -13151,7 +13370,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>2300</v>
       </c>
@@ -13180,7 +13399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>2400</v>
       </c>
@@ -13209,7 +13428,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2500</v>
       </c>
@@ -13238,7 +13457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>2600</v>
       </c>
@@ -13267,7 +13486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>2700</v>
       </c>
@@ -13296,7 +13515,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>2800</v>
       </c>
@@ -13325,7 +13544,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>2900</v>
       </c>
@@ -13354,7 +13573,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>3000</v>
       </c>
@@ -13383,7 +13602,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>3100</v>
       </c>
@@ -13412,7 +13631,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>3200</v>
       </c>
